--- a/SESAccounts.xlsx
+++ b/SESAccounts.xlsx
@@ -7,6 +7,9 @@
   </x:bookViews>
   <x:sheets>
     <x:sheet name="Salesforce_SESCaseBC" sheetId="2" r:id="rId2"/>
+    <x:sheet name="Salesforce_SESCaseAR" sheetId="3" r:id="rId3"/>
+    <x:sheet name="Salesforce_SESCaseDSC" sheetId="4" r:id="rId4"/>
+    <x:sheet name="Salesforce_SESCaseMI" sheetId="5" r:id="rId5"/>
   </x:sheets>
   <x:definedNames/>
   <x:calcPr calcId="125725"/>
@@ -14,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="66">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="76">
   <x:si>
     <x:t>TestScenarioID</x:t>
   </x:si>
@@ -212,6 +215,36 @@
   </x:si>
   <x:si>
     <x:t>User should be able to validate the Case is deleted</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Valid value for required field Root Cause </x:t>
+  </x:si>
+  <x:si>
+    <x:t>Input valid value in the  Root Cause field.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>User should be able to input value for the Root Cause field.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Step 9</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Valid value for required field Meter Fit Reason </x:t>
+  </x:si>
+  <x:si>
+    <x:t>Input valid value in the  Meter Fit Reason field.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>User should be able to input value for the Meter Fit Reason field.</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Valid value for required field Location </x:t>
+  </x:si>
+  <x:si>
+    <x:t>Input valid value in the  Location field.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>User should be able to input value for the Location field.</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -296,6 +329,66 @@
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
 <x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:K22" totalsRowShown="0">
+  <x:autoFilter ref="A1:K22"/>
+  <x:tableColumns count="11">
+    <x:tableColumn id="1" name="TestScenarioID"/>
+    <x:tableColumn id="2" name="TestCaseID"/>
+    <x:tableColumn id="3" name="Description"/>
+    <x:tableColumn id="4" name="Precondition"/>
+    <x:tableColumn id="5" name="TestData"/>
+    <x:tableColumn id="6" name="Steps"/>
+    <x:tableColumn id="7" name="UserAction"/>
+    <x:tableColumn id="8" name="ExpectedResult"/>
+    <x:tableColumn id="9" name="Approved/Rejected"/>
+    <x:tableColumn id="10" name="ReasonToReject"/>
+    <x:tableColumn id="11" name="IsModified/Added"/>
+  </x:tableColumns>
+  <x:tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</x:table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table11" displayName="Table11" ref="A1:K18" totalsRowShown="0">
+  <x:autoFilter ref="A1:K18"/>
+  <x:tableColumns count="11">
+    <x:tableColumn id="1" name="TestScenarioID"/>
+    <x:tableColumn id="2" name="TestCaseID"/>
+    <x:tableColumn id="3" name="Description"/>
+    <x:tableColumn id="4" name="Precondition"/>
+    <x:tableColumn id="5" name="TestData"/>
+    <x:tableColumn id="6" name="Steps"/>
+    <x:tableColumn id="7" name="UserAction"/>
+    <x:tableColumn id="8" name="ExpectedResult"/>
+    <x:tableColumn id="9" name="Approved/Rejected"/>
+    <x:tableColumn id="10" name="ReasonToReject"/>
+    <x:tableColumn id="11" name="IsModified/Added"/>
+  </x:tableColumns>
+  <x:tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</x:table>
+</file>
+
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table12" displayName="Table12" ref="A1:K24" totalsRowShown="0">
+  <x:autoFilter ref="A1:K24"/>
+  <x:tableColumns count="11">
+    <x:tableColumn id="1" name="TestScenarioID"/>
+    <x:tableColumn id="2" name="TestCaseID"/>
+    <x:tableColumn id="3" name="Description"/>
+    <x:tableColumn id="4" name="Precondition"/>
+    <x:tableColumn id="5" name="TestData"/>
+    <x:tableColumn id="6" name="Steps"/>
+    <x:tableColumn id="7" name="UserAction"/>
+    <x:tableColumn id="8" name="ExpectedResult"/>
+    <x:tableColumn id="9" name="Approved/Rejected"/>
+    <x:tableColumn id="10" name="ReasonToReject"/>
+    <x:tableColumn id="11" name="IsModified/Added"/>
+  </x:tableColumns>
+  <x:tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</x:table>
+</file>
+
+<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table13" displayName="Table13" ref="A1:K22" totalsRowShown="0">
   <x:autoFilter ref="A1:K22"/>
   <x:tableColumns count="11">
     <x:tableColumn id="1" name="TestScenarioID"/>
@@ -1117,7 +1210,1540 @@
   <x:pageSetup paperSize="1" scale="100" pageOrder="downThenOver" orientation="default" blackAndWhite="0" draft="0" cellComments="none" errors="displayed"/>
   <x:headerFooter/>
   <x:tableParts count="1">
-    <x:tablePart r:id="rId5"/>
+    <x:tablePart r:id="rId8"/>
+  </x:tableParts>
+</x:worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <x:sheetPr>
+    <x:outlinePr summaryBelow="1" summaryRight="1"/>
+  </x:sheetPr>
+  <x:dimension ref="A1:K18"/>
+  <x:sheetViews>
+    <x:sheetView workbookViewId="0"/>
+  </x:sheetViews>
+  <x:sheetFormatPr defaultRowHeight="15"/>
+  <x:cols>
+    <x:col min="1" max="1" width="15.980625" style="0" customWidth="1"/>
+    <x:col min="2" max="2" width="26.270625" style="0" customWidth="1"/>
+    <x:col min="3" max="3" width="12.980625" style="0" customWidth="1"/>
+    <x:col min="4" max="4" width="69.980624999999989" style="0" customWidth="1"/>
+    <x:col min="5" max="5" width="189.840625" style="0" customWidth="1"/>
+    <x:col min="6" max="6" width="7.840625" style="0" customWidth="1"/>
+    <x:col min="7" max="7" width="55.840625" style="0" customWidth="1"/>
+    <x:col min="8" max="8" width="90.550625" style="0" customWidth="1"/>
+    <x:col min="9" max="9" width="20.410625" style="0" customWidth="1"/>
+    <x:col min="10" max="10" width="16.980625" style="0" customWidth="1"/>
+    <x:col min="11" max="11" width="18.980625" style="0" customWidth="1"/>
+  </x:cols>
+  <x:sheetData>
+    <x:row r="1" spans="1:11">
+      <x:c r="A1" s="0" t="s">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B1" s="0" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="C1" s="0" t="s">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="D1" s="0" t="s">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="E1" s="0" t="s">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="F1" s="0" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="G1" s="0" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="H1" s="0" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="I1" s="0" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="J1" s="0" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="K1" s="0" t="s">
+        <x:v>10</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="2" spans="1:11">
+      <x:c r="A2" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="B2" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="C2" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="D2" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="E2" s="0" t="s"/>
+      <x:c r="F2" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="G2" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="H2" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="I2" s="0" t="s"/>
+      <x:c r="J2" s="0" t="s"/>
+      <x:c r="K2" s="0" t="s"/>
+    </x:row>
+    <x:row r="3" spans="1:11">
+      <x:c r="A3" s="0" t="s"/>
+      <x:c r="B3" s="0" t="s"/>
+      <x:c r="C3" s="0" t="s"/>
+      <x:c r="D3" s="0" t="s"/>
+      <x:c r="E3" s="0" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="F3" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="G3" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="H3" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="I3" s="0" t="s"/>
+      <x:c r="J3" s="0" t="s"/>
+      <x:c r="K3" s="0" t="s"/>
+    </x:row>
+    <x:row r="4" spans="1:11">
+      <x:c r="A4" s="0" t="s"/>
+      <x:c r="B4" s="0" t="s"/>
+      <x:c r="C4" s="0" t="s"/>
+      <x:c r="D4" s="0" t="s"/>
+      <x:c r="E4" s="0" t="s">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="F4" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="G4" s="0" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="H4" s="0" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="I4" s="0" t="s"/>
+      <x:c r="J4" s="0" t="s"/>
+      <x:c r="K4" s="0" t="s"/>
+    </x:row>
+    <x:row r="5" spans="1:11">
+      <x:c r="A5" s="0" t="s"/>
+      <x:c r="B5" s="0" t="s"/>
+      <x:c r="C5" s="0" t="s"/>
+      <x:c r="D5" s="0" t="s"/>
+      <x:c r="E5" s="0" t="s">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="F5" s="0" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="G5" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="H5" s="0" t="s">
+        <x:v>33</x:v>
+      </x:c>
+      <x:c r="I5" s="0" t="s"/>
+      <x:c r="J5" s="0" t="s"/>
+      <x:c r="K5" s="0" t="s"/>
+    </x:row>
+    <x:row r="6" spans="1:11">
+      <x:c r="A6" s="0" t="s"/>
+      <x:c r="B6" s="0" t="s"/>
+      <x:c r="C6" s="0" t="s"/>
+      <x:c r="D6" s="0" t="s"/>
+      <x:c r="E6" s="0" t="s">
+        <x:v>66</x:v>
+      </x:c>
+      <x:c r="F6" s="0" t="s">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="G6" s="0" t="s">
+        <x:v>67</x:v>
+      </x:c>
+      <x:c r="H6" s="0" t="s">
+        <x:v>68</x:v>
+      </x:c>
+      <x:c r="I6" s="0" t="s"/>
+      <x:c r="J6" s="0" t="s"/>
+      <x:c r="K6" s="0" t="s"/>
+    </x:row>
+    <x:row r="7" spans="1:11">
+      <x:c r="A7" s="0" t="s"/>
+      <x:c r="B7" s="0" t="s"/>
+      <x:c r="C7" s="0" t="s"/>
+      <x:c r="D7" s="0" t="s"/>
+      <x:c r="E7" s="0" t="s"/>
+      <x:c r="F7" s="0" t="s">
+        <x:v>35</x:v>
+      </x:c>
+      <x:c r="G7" s="0" t="s">
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="H7" s="0" t="s">
+        <x:v>44</x:v>
+      </x:c>
+      <x:c r="I7" s="0" t="s"/>
+      <x:c r="J7" s="0" t="s"/>
+      <x:c r="K7" s="0" t="s"/>
+    </x:row>
+    <x:row r="8" spans="1:11">
+      <x:c r="A8" s="0" t="s">
+        <x:v>45</x:v>
+      </x:c>
+      <x:c r="B8" s="0" t="s">
+        <x:v>46</x:v>
+      </x:c>
+      <x:c r="C8" s="0" t="s">
+        <x:v>47</x:v>
+      </x:c>
+      <x:c r="D8" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="E8" s="0" t="s"/>
+      <x:c r="F8" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="G8" s="0" t="s">
+        <x:v>48</x:v>
+      </x:c>
+      <x:c r="H8" s="0" t="s">
+        <x:v>49</x:v>
+      </x:c>
+      <x:c r="I8" s="0" t="s"/>
+      <x:c r="J8" s="0" t="s"/>
+      <x:c r="K8" s="0" t="s"/>
+    </x:row>
+    <x:row r="9" spans="1:11">
+      <x:c r="A9" s="0" t="s"/>
+      <x:c r="B9" s="0" t="s"/>
+      <x:c r="C9" s="0" t="s"/>
+      <x:c r="D9" s="0" t="s"/>
+      <x:c r="E9" s="0" t="s"/>
+      <x:c r="F9" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="G9" s="0" t="s">
+        <x:v>50</x:v>
+      </x:c>
+      <x:c r="H9" s="0" t="s">
+        <x:v>51</x:v>
+      </x:c>
+      <x:c r="I9" s="0" t="s"/>
+      <x:c r="J9" s="0" t="s"/>
+      <x:c r="K9" s="0" t="s"/>
+    </x:row>
+    <x:row r="10" spans="1:11">
+      <x:c r="A10" s="0" t="s">
+        <x:v>52</x:v>
+      </x:c>
+      <x:c r="B10" s="0" t="s">
+        <x:v>53</x:v>
+      </x:c>
+      <x:c r="C10" s="0" t="s">
+        <x:v>54</x:v>
+      </x:c>
+      <x:c r="D10" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="E10" s="0" t="s"/>
+      <x:c r="F10" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="G10" s="0" t="s">
+        <x:v>55</x:v>
+      </x:c>
+      <x:c r="H10" s="0" t="s">
+        <x:v>56</x:v>
+      </x:c>
+      <x:c r="I10" s="0" t="s"/>
+      <x:c r="J10" s="0" t="s"/>
+      <x:c r="K10" s="0" t="s"/>
+    </x:row>
+    <x:row r="11" spans="1:11">
+      <x:c r="A11" s="0" t="s"/>
+      <x:c r="B11" s="0" t="s"/>
+      <x:c r="C11" s="0" t="s"/>
+      <x:c r="D11" s="0" t="s"/>
+      <x:c r="E11" s="0" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="F11" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="G11" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="H11" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="I11" s="0" t="s"/>
+      <x:c r="J11" s="0" t="s"/>
+      <x:c r="K11" s="0" t="s"/>
+    </x:row>
+    <x:row r="12" spans="1:11">
+      <x:c r="A12" s="0" t="s"/>
+      <x:c r="B12" s="0" t="s"/>
+      <x:c r="C12" s="0" t="s"/>
+      <x:c r="D12" s="0" t="s"/>
+      <x:c r="E12" s="0" t="s">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="F12" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="G12" s="0" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="H12" s="0" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="I12" s="0" t="s"/>
+      <x:c r="J12" s="0" t="s"/>
+      <x:c r="K12" s="0" t="s"/>
+    </x:row>
+    <x:row r="13" spans="1:11">
+      <x:c r="A13" s="0" t="s"/>
+      <x:c r="B13" s="0" t="s"/>
+      <x:c r="C13" s="0" t="s"/>
+      <x:c r="D13" s="0" t="s"/>
+      <x:c r="E13" s="0" t="s">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="F13" s="0" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="G13" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="H13" s="0" t="s">
+        <x:v>33</x:v>
+      </x:c>
+      <x:c r="I13" s="0" t="s"/>
+      <x:c r="J13" s="0" t="s"/>
+      <x:c r="K13" s="0" t="s"/>
+    </x:row>
+    <x:row r="14" spans="1:11">
+      <x:c r="A14" s="0" t="s"/>
+      <x:c r="B14" s="0" t="s"/>
+      <x:c r="C14" s="0" t="s"/>
+      <x:c r="D14" s="0" t="s"/>
+      <x:c r="E14" s="0" t="s">
+        <x:v>66</x:v>
+      </x:c>
+      <x:c r="F14" s="0" t="s">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="G14" s="0" t="s">
+        <x:v>67</x:v>
+      </x:c>
+      <x:c r="H14" s="0" t="s">
+        <x:v>68</x:v>
+      </x:c>
+      <x:c r="I14" s="0" t="s"/>
+      <x:c r="J14" s="0" t="s"/>
+      <x:c r="K14" s="0" t="s"/>
+    </x:row>
+    <x:row r="15" spans="1:11">
+      <x:c r="A15" s="0" t="s"/>
+      <x:c r="B15" s="0" t="s"/>
+      <x:c r="C15" s="0" t="s"/>
+      <x:c r="D15" s="0" t="s"/>
+      <x:c r="E15" s="0" t="s"/>
+      <x:c r="F15" s="0" t="s">
+        <x:v>35</x:v>
+      </x:c>
+      <x:c r="G15" s="0" t="s">
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="H15" s="0" t="s">
+        <x:v>57</x:v>
+      </x:c>
+      <x:c r="I15" s="0" t="s"/>
+      <x:c r="J15" s="0" t="s"/>
+      <x:c r="K15" s="0" t="s"/>
+    </x:row>
+    <x:row r="16" spans="1:11">
+      <x:c r="A16" s="0" t="s">
+        <x:v>58</x:v>
+      </x:c>
+      <x:c r="B16" s="0" t="s">
+        <x:v>59</x:v>
+      </x:c>
+      <x:c r="C16" s="0" t="s">
+        <x:v>60</x:v>
+      </x:c>
+      <x:c r="D16" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="E16" s="0" t="s"/>
+      <x:c r="F16" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="G16" s="0" t="s">
+        <x:v>61</x:v>
+      </x:c>
+      <x:c r="H16" s="0" t="s">
+        <x:v>56</x:v>
+      </x:c>
+      <x:c r="I16" s="0" t="s"/>
+      <x:c r="J16" s="0" t="s"/>
+      <x:c r="K16" s="0" t="s"/>
+    </x:row>
+    <x:row r="17" spans="1:11">
+      <x:c r="A17" s="0" t="s"/>
+      <x:c r="B17" s="0" t="s"/>
+      <x:c r="C17" s="0" t="s"/>
+      <x:c r="D17" s="0" t="s"/>
+      <x:c r="E17" s="0" t="s"/>
+      <x:c r="F17" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="G17" s="0" t="s">
+        <x:v>62</x:v>
+      </x:c>
+      <x:c r="H17" s="0" t="s">
+        <x:v>63</x:v>
+      </x:c>
+      <x:c r="I17" s="0" t="s"/>
+      <x:c r="J17" s="0" t="s"/>
+      <x:c r="K17" s="0" t="s"/>
+    </x:row>
+    <x:row r="18" spans="1:11">
+      <x:c r="A18" s="0" t="s"/>
+      <x:c r="B18" s="0" t="s"/>
+      <x:c r="C18" s="0" t="s"/>
+      <x:c r="D18" s="0" t="s"/>
+      <x:c r="E18" s="0" t="s"/>
+      <x:c r="F18" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="G18" s="0" t="s">
+        <x:v>64</x:v>
+      </x:c>
+      <x:c r="H18" s="0" t="s">
+        <x:v>65</x:v>
+      </x:c>
+      <x:c r="I18" s="0" t="s"/>
+      <x:c r="J18" s="0" t="s"/>
+      <x:c r="K18" s="0" t="s"/>
+    </x:row>
+  </x:sheetData>
+  <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
+  <x:pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>
+  <x:pageSetup paperSize="1" scale="100" pageOrder="downThenOver" orientation="default" blackAndWhite="0" draft="0" cellComments="none" errors="displayed"/>
+  <x:headerFooter/>
+  <x:tableParts count="1">
+    <x:tablePart r:id="rId9"/>
+  </x:tableParts>
+</x:worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <x:sheetPr>
+    <x:outlinePr summaryBelow="1" summaryRight="1"/>
+  </x:sheetPr>
+  <x:dimension ref="A1:K24"/>
+  <x:sheetViews>
+    <x:sheetView workbookViewId="0"/>
+  </x:sheetViews>
+  <x:sheetFormatPr defaultRowHeight="15"/>
+  <x:cols>
+    <x:col min="1" max="1" width="15.980625" style="0" customWidth="1"/>
+    <x:col min="2" max="2" width="26.270625" style="0" customWidth="1"/>
+    <x:col min="3" max="3" width="12.980625" style="0" customWidth="1"/>
+    <x:col min="4" max="4" width="69.980624999999989" style="0" customWidth="1"/>
+    <x:col min="5" max="5" width="189.840625" style="0" customWidth="1"/>
+    <x:col min="6" max="6" width="7.840625" style="0" customWidth="1"/>
+    <x:col min="7" max="7" width="55.840625" style="0" customWidth="1"/>
+    <x:col min="8" max="8" width="90.550625" style="0" customWidth="1"/>
+    <x:col min="9" max="9" width="20.410625" style="0" customWidth="1"/>
+    <x:col min="10" max="10" width="16.980625" style="0" customWidth="1"/>
+    <x:col min="11" max="11" width="18.980625" style="0" customWidth="1"/>
+  </x:cols>
+  <x:sheetData>
+    <x:row r="1" spans="1:11">
+      <x:c r="A1" s="0" t="s">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B1" s="0" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="C1" s="0" t="s">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="D1" s="0" t="s">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="E1" s="0" t="s">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="F1" s="0" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="G1" s="0" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="H1" s="0" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="I1" s="0" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="J1" s="0" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="K1" s="0" t="s">
+        <x:v>10</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="2" spans="1:11">
+      <x:c r="A2" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="B2" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="C2" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="D2" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="E2" s="0" t="s"/>
+      <x:c r="F2" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="G2" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="H2" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="I2" s="0" t="s"/>
+      <x:c r="J2" s="0" t="s"/>
+      <x:c r="K2" s="0" t="s"/>
+    </x:row>
+    <x:row r="3" spans="1:11">
+      <x:c r="A3" s="0" t="s"/>
+      <x:c r="B3" s="0" t="s"/>
+      <x:c r="C3" s="0" t="s"/>
+      <x:c r="D3" s="0" t="s"/>
+      <x:c r="E3" s="0" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="F3" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="G3" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="H3" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="I3" s="0" t="s"/>
+      <x:c r="J3" s="0" t="s"/>
+      <x:c r="K3" s="0" t="s"/>
+    </x:row>
+    <x:row r="4" spans="1:11">
+      <x:c r="A4" s="0" t="s"/>
+      <x:c r="B4" s="0" t="s"/>
+      <x:c r="C4" s="0" t="s"/>
+      <x:c r="D4" s="0" t="s"/>
+      <x:c r="E4" s="0" t="s">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="F4" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="G4" s="0" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="H4" s="0" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="I4" s="0" t="s"/>
+      <x:c r="J4" s="0" t="s"/>
+      <x:c r="K4" s="0" t="s"/>
+    </x:row>
+    <x:row r="5" spans="1:11">
+      <x:c r="A5" s="0" t="s"/>
+      <x:c r="B5" s="0" t="s"/>
+      <x:c r="C5" s="0" t="s"/>
+      <x:c r="D5" s="0" t="s"/>
+      <x:c r="E5" s="0" t="s">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="F5" s="0" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="G5" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="H5" s="0" t="s">
+        <x:v>33</x:v>
+      </x:c>
+      <x:c r="I5" s="0" t="s"/>
+      <x:c r="J5" s="0" t="s"/>
+      <x:c r="K5" s="0" t="s"/>
+    </x:row>
+    <x:row r="6" spans="1:11">
+      <x:c r="A6" s="0" t="s"/>
+      <x:c r="B6" s="0" t="s"/>
+      <x:c r="C6" s="0" t="s"/>
+      <x:c r="D6" s="0" t="s"/>
+      <x:c r="E6" s="0" t="s">
+        <x:v>66</x:v>
+      </x:c>
+      <x:c r="F6" s="0" t="s">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="G6" s="0" t="s">
+        <x:v>67</x:v>
+      </x:c>
+      <x:c r="H6" s="0" t="s">
+        <x:v>68</x:v>
+      </x:c>
+      <x:c r="I6" s="0" t="s"/>
+      <x:c r="J6" s="0" t="s"/>
+      <x:c r="K6" s="0" t="s"/>
+    </x:row>
+    <x:row r="7" spans="1:11">
+      <x:c r="A7" s="0" t="s"/>
+      <x:c r="B7" s="0" t="s"/>
+      <x:c r="C7" s="0" t="s"/>
+      <x:c r="D7" s="0" t="s"/>
+      <x:c r="E7" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="F7" s="0" t="s">
+        <x:v>35</x:v>
+      </x:c>
+      <x:c r="G7" s="0" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="H7" s="0" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="I7" s="0" t="s"/>
+      <x:c r="J7" s="0" t="s"/>
+      <x:c r="K7" s="0" t="s"/>
+    </x:row>
+    <x:row r="8" spans="1:11">
+      <x:c r="A8" s="0" t="s"/>
+      <x:c r="B8" s="0" t="s"/>
+      <x:c r="C8" s="0" t="s"/>
+      <x:c r="D8" s="0" t="s"/>
+      <x:c r="E8" s="0" t="s">
+        <x:v>34</x:v>
+      </x:c>
+      <x:c r="F8" s="0" t="s">
+        <x:v>39</x:v>
+      </x:c>
+      <x:c r="G8" s="0" t="s">
+        <x:v>36</x:v>
+      </x:c>
+      <x:c r="H8" s="0" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="I8" s="0" t="s"/>
+      <x:c r="J8" s="0" t="s"/>
+      <x:c r="K8" s="0" t="s"/>
+    </x:row>
+    <x:row r="9" spans="1:11">
+      <x:c r="A9" s="0" t="s"/>
+      <x:c r="B9" s="0" t="s"/>
+      <x:c r="C9" s="0" t="s"/>
+      <x:c r="D9" s="0" t="s"/>
+      <x:c r="E9" s="0" t="s">
+        <x:v>38</x:v>
+      </x:c>
+      <x:c r="F9" s="0" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="G9" s="0" t="s">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c r="H9" s="0" t="s">
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="I9" s="0" t="s"/>
+      <x:c r="J9" s="0" t="s"/>
+      <x:c r="K9" s="0" t="s"/>
+    </x:row>
+    <x:row r="10" spans="1:11">
+      <x:c r="A10" s="0" t="s"/>
+      <x:c r="B10" s="0" t="s"/>
+      <x:c r="C10" s="0" t="s"/>
+      <x:c r="D10" s="0" t="s"/>
+      <x:c r="E10" s="0" t="s"/>
+      <x:c r="F10" s="0" t="s">
+        <x:v>69</x:v>
+      </x:c>
+      <x:c r="G10" s="0" t="s">
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="H10" s="0" t="s">
+        <x:v>44</x:v>
+      </x:c>
+      <x:c r="I10" s="0" t="s"/>
+      <x:c r="J10" s="0" t="s"/>
+      <x:c r="K10" s="0" t="s"/>
+    </x:row>
+    <x:row r="11" spans="1:11">
+      <x:c r="A11" s="0" t="s">
+        <x:v>45</x:v>
+      </x:c>
+      <x:c r="B11" s="0" t="s">
+        <x:v>46</x:v>
+      </x:c>
+      <x:c r="C11" s="0" t="s">
+        <x:v>47</x:v>
+      </x:c>
+      <x:c r="D11" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="E11" s="0" t="s"/>
+      <x:c r="F11" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="G11" s="0" t="s">
+        <x:v>48</x:v>
+      </x:c>
+      <x:c r="H11" s="0" t="s">
+        <x:v>49</x:v>
+      </x:c>
+      <x:c r="I11" s="0" t="s"/>
+      <x:c r="J11" s="0" t="s"/>
+      <x:c r="K11" s="0" t="s"/>
+    </x:row>
+    <x:row r="12" spans="1:11">
+      <x:c r="A12" s="0" t="s"/>
+      <x:c r="B12" s="0" t="s"/>
+      <x:c r="C12" s="0" t="s"/>
+      <x:c r="D12" s="0" t="s"/>
+      <x:c r="E12" s="0" t="s"/>
+      <x:c r="F12" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="G12" s="0" t="s">
+        <x:v>50</x:v>
+      </x:c>
+      <x:c r="H12" s="0" t="s">
+        <x:v>51</x:v>
+      </x:c>
+      <x:c r="I12" s="0" t="s"/>
+      <x:c r="J12" s="0" t="s"/>
+      <x:c r="K12" s="0" t="s"/>
+    </x:row>
+    <x:row r="13" spans="1:11">
+      <x:c r="A13" s="0" t="s">
+        <x:v>52</x:v>
+      </x:c>
+      <x:c r="B13" s="0" t="s">
+        <x:v>53</x:v>
+      </x:c>
+      <x:c r="C13" s="0" t="s">
+        <x:v>54</x:v>
+      </x:c>
+      <x:c r="D13" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="E13" s="0" t="s"/>
+      <x:c r="F13" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="G13" s="0" t="s">
+        <x:v>55</x:v>
+      </x:c>
+      <x:c r="H13" s="0" t="s">
+        <x:v>56</x:v>
+      </x:c>
+      <x:c r="I13" s="0" t="s"/>
+      <x:c r="J13" s="0" t="s"/>
+      <x:c r="K13" s="0" t="s"/>
+    </x:row>
+    <x:row r="14" spans="1:11">
+      <x:c r="A14" s="0" t="s"/>
+      <x:c r="B14" s="0" t="s"/>
+      <x:c r="C14" s="0" t="s"/>
+      <x:c r="D14" s="0" t="s"/>
+      <x:c r="E14" s="0" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="F14" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="G14" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="H14" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="I14" s="0" t="s"/>
+      <x:c r="J14" s="0" t="s"/>
+      <x:c r="K14" s="0" t="s"/>
+    </x:row>
+    <x:row r="15" spans="1:11">
+      <x:c r="A15" s="0" t="s"/>
+      <x:c r="B15" s="0" t="s"/>
+      <x:c r="C15" s="0" t="s"/>
+      <x:c r="D15" s="0" t="s"/>
+      <x:c r="E15" s="0" t="s">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="F15" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="G15" s="0" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="H15" s="0" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="I15" s="0" t="s"/>
+      <x:c r="J15" s="0" t="s"/>
+      <x:c r="K15" s="0" t="s"/>
+    </x:row>
+    <x:row r="16" spans="1:11">
+      <x:c r="A16" s="0" t="s"/>
+      <x:c r="B16" s="0" t="s"/>
+      <x:c r="C16" s="0" t="s"/>
+      <x:c r="D16" s="0" t="s"/>
+      <x:c r="E16" s="0" t="s">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="F16" s="0" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="G16" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="H16" s="0" t="s">
+        <x:v>33</x:v>
+      </x:c>
+      <x:c r="I16" s="0" t="s"/>
+      <x:c r="J16" s="0" t="s"/>
+      <x:c r="K16" s="0" t="s"/>
+    </x:row>
+    <x:row r="17" spans="1:11">
+      <x:c r="A17" s="0" t="s"/>
+      <x:c r="B17" s="0" t="s"/>
+      <x:c r="C17" s="0" t="s"/>
+      <x:c r="D17" s="0" t="s"/>
+      <x:c r="E17" s="0" t="s">
+        <x:v>66</x:v>
+      </x:c>
+      <x:c r="F17" s="0" t="s">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="G17" s="0" t="s">
+        <x:v>67</x:v>
+      </x:c>
+      <x:c r="H17" s="0" t="s">
+        <x:v>68</x:v>
+      </x:c>
+      <x:c r="I17" s="0" t="s"/>
+      <x:c r="J17" s="0" t="s"/>
+      <x:c r="K17" s="0" t="s"/>
+    </x:row>
+    <x:row r="18" spans="1:11">
+      <x:c r="A18" s="0" t="s"/>
+      <x:c r="B18" s="0" t="s"/>
+      <x:c r="C18" s="0" t="s"/>
+      <x:c r="D18" s="0" t="s"/>
+      <x:c r="E18" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="F18" s="0" t="s">
+        <x:v>35</x:v>
+      </x:c>
+      <x:c r="G18" s="0" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="H18" s="0" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="I18" s="0" t="s"/>
+      <x:c r="J18" s="0" t="s"/>
+      <x:c r="K18" s="0" t="s"/>
+    </x:row>
+    <x:row r="19" spans="1:11">
+      <x:c r="A19" s="0" t="s"/>
+      <x:c r="B19" s="0" t="s"/>
+      <x:c r="C19" s="0" t="s"/>
+      <x:c r="D19" s="0" t="s"/>
+      <x:c r="E19" s="0" t="s">
+        <x:v>34</x:v>
+      </x:c>
+      <x:c r="F19" s="0" t="s">
+        <x:v>39</x:v>
+      </x:c>
+      <x:c r="G19" s="0" t="s">
+        <x:v>36</x:v>
+      </x:c>
+      <x:c r="H19" s="0" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="I19" s="0" t="s"/>
+      <x:c r="J19" s="0" t="s"/>
+      <x:c r="K19" s="0" t="s"/>
+    </x:row>
+    <x:row r="20" spans="1:11">
+      <x:c r="A20" s="0" t="s"/>
+      <x:c r="B20" s="0" t="s"/>
+      <x:c r="C20" s="0" t="s"/>
+      <x:c r="D20" s="0" t="s"/>
+      <x:c r="E20" s="0" t="s">
+        <x:v>38</x:v>
+      </x:c>
+      <x:c r="F20" s="0" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="G20" s="0" t="s">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c r="H20" s="0" t="s">
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="I20" s="0" t="s"/>
+      <x:c r="J20" s="0" t="s"/>
+      <x:c r="K20" s="0" t="s"/>
+    </x:row>
+    <x:row r="21" spans="1:11">
+      <x:c r="A21" s="0" t="s"/>
+      <x:c r="B21" s="0" t="s"/>
+      <x:c r="C21" s="0" t="s"/>
+      <x:c r="D21" s="0" t="s"/>
+      <x:c r="E21" s="0" t="s"/>
+      <x:c r="F21" s="0" t="s">
+        <x:v>69</x:v>
+      </x:c>
+      <x:c r="G21" s="0" t="s">
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="H21" s="0" t="s">
+        <x:v>57</x:v>
+      </x:c>
+      <x:c r="I21" s="0" t="s"/>
+      <x:c r="J21" s="0" t="s"/>
+      <x:c r="K21" s="0" t="s"/>
+    </x:row>
+    <x:row r="22" spans="1:11">
+      <x:c r="A22" s="0" t="s">
+        <x:v>58</x:v>
+      </x:c>
+      <x:c r="B22" s="0" t="s">
+        <x:v>59</x:v>
+      </x:c>
+      <x:c r="C22" s="0" t="s">
+        <x:v>60</x:v>
+      </x:c>
+      <x:c r="D22" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="E22" s="0" t="s"/>
+      <x:c r="F22" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="G22" s="0" t="s">
+        <x:v>61</x:v>
+      </x:c>
+      <x:c r="H22" s="0" t="s">
+        <x:v>56</x:v>
+      </x:c>
+      <x:c r="I22" s="0" t="s"/>
+      <x:c r="J22" s="0" t="s"/>
+      <x:c r="K22" s="0" t="s"/>
+    </x:row>
+    <x:row r="23" spans="1:11">
+      <x:c r="A23" s="0" t="s"/>
+      <x:c r="B23" s="0" t="s"/>
+      <x:c r="C23" s="0" t="s"/>
+      <x:c r="D23" s="0" t="s"/>
+      <x:c r="E23" s="0" t="s"/>
+      <x:c r="F23" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="G23" s="0" t="s">
+        <x:v>62</x:v>
+      </x:c>
+      <x:c r="H23" s="0" t="s">
+        <x:v>63</x:v>
+      </x:c>
+      <x:c r="I23" s="0" t="s"/>
+      <x:c r="J23" s="0" t="s"/>
+      <x:c r="K23" s="0" t="s"/>
+    </x:row>
+    <x:row r="24" spans="1:11">
+      <x:c r="A24" s="0" t="s"/>
+      <x:c r="B24" s="0" t="s"/>
+      <x:c r="C24" s="0" t="s"/>
+      <x:c r="D24" s="0" t="s"/>
+      <x:c r="E24" s="0" t="s"/>
+      <x:c r="F24" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="G24" s="0" t="s">
+        <x:v>64</x:v>
+      </x:c>
+      <x:c r="H24" s="0" t="s">
+        <x:v>65</x:v>
+      </x:c>
+      <x:c r="I24" s="0" t="s"/>
+      <x:c r="J24" s="0" t="s"/>
+      <x:c r="K24" s="0" t="s"/>
+    </x:row>
+  </x:sheetData>
+  <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
+  <x:pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>
+  <x:pageSetup paperSize="1" scale="100" pageOrder="downThenOver" orientation="default" blackAndWhite="0" draft="0" cellComments="none" errors="displayed"/>
+  <x:headerFooter/>
+  <x:tableParts count="1">
+    <x:tablePart r:id="rId10"/>
+  </x:tableParts>
+</x:worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <x:sheetPr>
+    <x:outlinePr summaryBelow="1" summaryRight="1"/>
+  </x:sheetPr>
+  <x:dimension ref="A1:K22"/>
+  <x:sheetViews>
+    <x:sheetView workbookViewId="0"/>
+  </x:sheetViews>
+  <x:sheetFormatPr defaultRowHeight="15"/>
+  <x:cols>
+    <x:col min="1" max="1" width="15.980625" style="0" customWidth="1"/>
+    <x:col min="2" max="2" width="26.270625" style="0" customWidth="1"/>
+    <x:col min="3" max="3" width="12.980625" style="0" customWidth="1"/>
+    <x:col min="4" max="4" width="69.980624999999989" style="0" customWidth="1"/>
+    <x:col min="5" max="5" width="189.840625" style="0" customWidth="1"/>
+    <x:col min="6" max="6" width="7.840625" style="0" customWidth="1"/>
+    <x:col min="7" max="7" width="55.840625" style="0" customWidth="1"/>
+    <x:col min="8" max="8" width="90.550625" style="0" customWidth="1"/>
+    <x:col min="9" max="9" width="20.410625" style="0" customWidth="1"/>
+    <x:col min="10" max="10" width="16.980625" style="0" customWidth="1"/>
+    <x:col min="11" max="11" width="18.980625" style="0" customWidth="1"/>
+  </x:cols>
+  <x:sheetData>
+    <x:row r="1" spans="1:11">
+      <x:c r="A1" s="0" t="s">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B1" s="0" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="C1" s="0" t="s">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="D1" s="0" t="s">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="E1" s="0" t="s">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="F1" s="0" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="G1" s="0" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="H1" s="0" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="I1" s="0" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="J1" s="0" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="K1" s="0" t="s">
+        <x:v>10</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="2" spans="1:11">
+      <x:c r="A2" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="B2" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="C2" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="D2" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="E2" s="0" t="s"/>
+      <x:c r="F2" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="G2" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="H2" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="I2" s="0" t="s"/>
+      <x:c r="J2" s="0" t="s"/>
+      <x:c r="K2" s="0" t="s"/>
+    </x:row>
+    <x:row r="3" spans="1:11">
+      <x:c r="A3" s="0" t="s"/>
+      <x:c r="B3" s="0" t="s"/>
+      <x:c r="C3" s="0" t="s"/>
+      <x:c r="D3" s="0" t="s"/>
+      <x:c r="E3" s="0" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="F3" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="G3" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="H3" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="I3" s="0" t="s"/>
+      <x:c r="J3" s="0" t="s"/>
+      <x:c r="K3" s="0" t="s"/>
+    </x:row>
+    <x:row r="4" spans="1:11">
+      <x:c r="A4" s="0" t="s"/>
+      <x:c r="B4" s="0" t="s"/>
+      <x:c r="C4" s="0" t="s"/>
+      <x:c r="D4" s="0" t="s"/>
+      <x:c r="E4" s="0" t="s">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="F4" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="G4" s="0" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="H4" s="0" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="I4" s="0" t="s"/>
+      <x:c r="J4" s="0" t="s"/>
+      <x:c r="K4" s="0" t="s"/>
+    </x:row>
+    <x:row r="5" spans="1:11">
+      <x:c r="A5" s="0" t="s"/>
+      <x:c r="B5" s="0" t="s"/>
+      <x:c r="C5" s="0" t="s"/>
+      <x:c r="D5" s="0" t="s"/>
+      <x:c r="E5" s="0" t="s">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="F5" s="0" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="G5" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="H5" s="0" t="s">
+        <x:v>33</x:v>
+      </x:c>
+      <x:c r="I5" s="0" t="s"/>
+      <x:c r="J5" s="0" t="s"/>
+      <x:c r="K5" s="0" t="s"/>
+    </x:row>
+    <x:row r="6" spans="1:11">
+      <x:c r="A6" s="0" t="s"/>
+      <x:c r="B6" s="0" t="s"/>
+      <x:c r="C6" s="0" t="s"/>
+      <x:c r="D6" s="0" t="s"/>
+      <x:c r="E6" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="F6" s="0" t="s">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="G6" s="0" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="H6" s="0" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="I6" s="0" t="s"/>
+      <x:c r="J6" s="0" t="s"/>
+      <x:c r="K6" s="0" t="s"/>
+    </x:row>
+    <x:row r="7" spans="1:11">
+      <x:c r="A7" s="0" t="s"/>
+      <x:c r="B7" s="0" t="s"/>
+      <x:c r="C7" s="0" t="s"/>
+      <x:c r="D7" s="0" t="s"/>
+      <x:c r="E7" s="0" t="s">
+        <x:v>70</x:v>
+      </x:c>
+      <x:c r="F7" s="0" t="s">
+        <x:v>35</x:v>
+      </x:c>
+      <x:c r="G7" s="0" t="s">
+        <x:v>71</x:v>
+      </x:c>
+      <x:c r="H7" s="0" t="s">
+        <x:v>72</x:v>
+      </x:c>
+      <x:c r="I7" s="0" t="s"/>
+      <x:c r="J7" s="0" t="s"/>
+      <x:c r="K7" s="0" t="s"/>
+    </x:row>
+    <x:row r="8" spans="1:11">
+      <x:c r="A8" s="0" t="s"/>
+      <x:c r="B8" s="0" t="s"/>
+      <x:c r="C8" s="0" t="s"/>
+      <x:c r="D8" s="0" t="s"/>
+      <x:c r="E8" s="0" t="s">
+        <x:v>73</x:v>
+      </x:c>
+      <x:c r="F8" s="0" t="s">
+        <x:v>39</x:v>
+      </x:c>
+      <x:c r="G8" s="0" t="s">
+        <x:v>74</x:v>
+      </x:c>
+      <x:c r="H8" s="0" t="s">
+        <x:v>75</x:v>
+      </x:c>
+      <x:c r="I8" s="0" t="s"/>
+      <x:c r="J8" s="0" t="s"/>
+      <x:c r="K8" s="0" t="s"/>
+    </x:row>
+    <x:row r="9" spans="1:11">
+      <x:c r="A9" s="0" t="s"/>
+      <x:c r="B9" s="0" t="s"/>
+      <x:c r="C9" s="0" t="s"/>
+      <x:c r="D9" s="0" t="s"/>
+      <x:c r="E9" s="0" t="s"/>
+      <x:c r="F9" s="0" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="G9" s="0" t="s">
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="H9" s="0" t="s">
+        <x:v>44</x:v>
+      </x:c>
+      <x:c r="I9" s="0" t="s"/>
+      <x:c r="J9" s="0" t="s"/>
+      <x:c r="K9" s="0" t="s"/>
+    </x:row>
+    <x:row r="10" spans="1:11">
+      <x:c r="A10" s="0" t="s">
+        <x:v>45</x:v>
+      </x:c>
+      <x:c r="B10" s="0" t="s">
+        <x:v>46</x:v>
+      </x:c>
+      <x:c r="C10" s="0" t="s">
+        <x:v>47</x:v>
+      </x:c>
+      <x:c r="D10" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="E10" s="0" t="s"/>
+      <x:c r="F10" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="G10" s="0" t="s">
+        <x:v>48</x:v>
+      </x:c>
+      <x:c r="H10" s="0" t="s">
+        <x:v>49</x:v>
+      </x:c>
+      <x:c r="I10" s="0" t="s"/>
+      <x:c r="J10" s="0" t="s"/>
+      <x:c r="K10" s="0" t="s"/>
+    </x:row>
+    <x:row r="11" spans="1:11">
+      <x:c r="A11" s="0" t="s"/>
+      <x:c r="B11" s="0" t="s"/>
+      <x:c r="C11" s="0" t="s"/>
+      <x:c r="D11" s="0" t="s"/>
+      <x:c r="E11" s="0" t="s"/>
+      <x:c r="F11" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="G11" s="0" t="s">
+        <x:v>50</x:v>
+      </x:c>
+      <x:c r="H11" s="0" t="s">
+        <x:v>51</x:v>
+      </x:c>
+      <x:c r="I11" s="0" t="s"/>
+      <x:c r="J11" s="0" t="s"/>
+      <x:c r="K11" s="0" t="s"/>
+    </x:row>
+    <x:row r="12" spans="1:11">
+      <x:c r="A12" s="0" t="s">
+        <x:v>52</x:v>
+      </x:c>
+      <x:c r="B12" s="0" t="s">
+        <x:v>53</x:v>
+      </x:c>
+      <x:c r="C12" s="0" t="s">
+        <x:v>54</x:v>
+      </x:c>
+      <x:c r="D12" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="E12" s="0" t="s"/>
+      <x:c r="F12" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="G12" s="0" t="s">
+        <x:v>55</x:v>
+      </x:c>
+      <x:c r="H12" s="0" t="s">
+        <x:v>56</x:v>
+      </x:c>
+      <x:c r="I12" s="0" t="s"/>
+      <x:c r="J12" s="0" t="s"/>
+      <x:c r="K12" s="0" t="s"/>
+    </x:row>
+    <x:row r="13" spans="1:11">
+      <x:c r="A13" s="0" t="s"/>
+      <x:c r="B13" s="0" t="s"/>
+      <x:c r="C13" s="0" t="s"/>
+      <x:c r="D13" s="0" t="s"/>
+      <x:c r="E13" s="0" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="F13" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="G13" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="H13" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="I13" s="0" t="s"/>
+      <x:c r="J13" s="0" t="s"/>
+      <x:c r="K13" s="0" t="s"/>
+    </x:row>
+    <x:row r="14" spans="1:11">
+      <x:c r="A14" s="0" t="s"/>
+      <x:c r="B14" s="0" t="s"/>
+      <x:c r="C14" s="0" t="s"/>
+      <x:c r="D14" s="0" t="s"/>
+      <x:c r="E14" s="0" t="s">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="F14" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="G14" s="0" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="H14" s="0" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="I14" s="0" t="s"/>
+      <x:c r="J14" s="0" t="s"/>
+      <x:c r="K14" s="0" t="s"/>
+    </x:row>
+    <x:row r="15" spans="1:11">
+      <x:c r="A15" s="0" t="s"/>
+      <x:c r="B15" s="0" t="s"/>
+      <x:c r="C15" s="0" t="s"/>
+      <x:c r="D15" s="0" t="s"/>
+      <x:c r="E15" s="0" t="s">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="F15" s="0" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="G15" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="H15" s="0" t="s">
+        <x:v>33</x:v>
+      </x:c>
+      <x:c r="I15" s="0" t="s"/>
+      <x:c r="J15" s="0" t="s"/>
+      <x:c r="K15" s="0" t="s"/>
+    </x:row>
+    <x:row r="16" spans="1:11">
+      <x:c r="A16" s="0" t="s"/>
+      <x:c r="B16" s="0" t="s"/>
+      <x:c r="C16" s="0" t="s"/>
+      <x:c r="D16" s="0" t="s"/>
+      <x:c r="E16" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="F16" s="0" t="s">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="G16" s="0" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="H16" s="0" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="I16" s="0" t="s"/>
+      <x:c r="J16" s="0" t="s"/>
+      <x:c r="K16" s="0" t="s"/>
+    </x:row>
+    <x:row r="17" spans="1:11">
+      <x:c r="A17" s="0" t="s"/>
+      <x:c r="B17" s="0" t="s"/>
+      <x:c r="C17" s="0" t="s"/>
+      <x:c r="D17" s="0" t="s"/>
+      <x:c r="E17" s="0" t="s">
+        <x:v>70</x:v>
+      </x:c>
+      <x:c r="F17" s="0" t="s">
+        <x:v>35</x:v>
+      </x:c>
+      <x:c r="G17" s="0" t="s">
+        <x:v>71</x:v>
+      </x:c>
+      <x:c r="H17" s="0" t="s">
+        <x:v>72</x:v>
+      </x:c>
+      <x:c r="I17" s="0" t="s"/>
+      <x:c r="J17" s="0" t="s"/>
+      <x:c r="K17" s="0" t="s"/>
+    </x:row>
+    <x:row r="18" spans="1:11">
+      <x:c r="A18" s="0" t="s"/>
+      <x:c r="B18" s="0" t="s"/>
+      <x:c r="C18" s="0" t="s"/>
+      <x:c r="D18" s="0" t="s"/>
+      <x:c r="E18" s="0" t="s">
+        <x:v>73</x:v>
+      </x:c>
+      <x:c r="F18" s="0" t="s">
+        <x:v>39</x:v>
+      </x:c>
+      <x:c r="G18" s="0" t="s">
+        <x:v>74</x:v>
+      </x:c>
+      <x:c r="H18" s="0" t="s">
+        <x:v>75</x:v>
+      </x:c>
+      <x:c r="I18" s="0" t="s"/>
+      <x:c r="J18" s="0" t="s"/>
+      <x:c r="K18" s="0" t="s"/>
+    </x:row>
+    <x:row r="19" spans="1:11">
+      <x:c r="A19" s="0" t="s"/>
+      <x:c r="B19" s="0" t="s"/>
+      <x:c r="C19" s="0" t="s"/>
+      <x:c r="D19" s="0" t="s"/>
+      <x:c r="E19" s="0" t="s"/>
+      <x:c r="F19" s="0" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="G19" s="0" t="s">
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="H19" s="0" t="s">
+        <x:v>57</x:v>
+      </x:c>
+      <x:c r="I19" s="0" t="s"/>
+      <x:c r="J19" s="0" t="s"/>
+      <x:c r="K19" s="0" t="s"/>
+    </x:row>
+    <x:row r="20" spans="1:11">
+      <x:c r="A20" s="0" t="s">
+        <x:v>58</x:v>
+      </x:c>
+      <x:c r="B20" s="0" t="s">
+        <x:v>59</x:v>
+      </x:c>
+      <x:c r="C20" s="0" t="s">
+        <x:v>60</x:v>
+      </x:c>
+      <x:c r="D20" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="E20" s="0" t="s"/>
+      <x:c r="F20" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="G20" s="0" t="s">
+        <x:v>61</x:v>
+      </x:c>
+      <x:c r="H20" s="0" t="s">
+        <x:v>56</x:v>
+      </x:c>
+      <x:c r="I20" s="0" t="s"/>
+      <x:c r="J20" s="0" t="s"/>
+      <x:c r="K20" s="0" t="s"/>
+    </x:row>
+    <x:row r="21" spans="1:11">
+      <x:c r="A21" s="0" t="s"/>
+      <x:c r="B21" s="0" t="s"/>
+      <x:c r="C21" s="0" t="s"/>
+      <x:c r="D21" s="0" t="s"/>
+      <x:c r="E21" s="0" t="s"/>
+      <x:c r="F21" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="G21" s="0" t="s">
+        <x:v>62</x:v>
+      </x:c>
+      <x:c r="H21" s="0" t="s">
+        <x:v>63</x:v>
+      </x:c>
+      <x:c r="I21" s="0" t="s"/>
+      <x:c r="J21" s="0" t="s"/>
+      <x:c r="K21" s="0" t="s"/>
+    </x:row>
+    <x:row r="22" spans="1:11">
+      <x:c r="A22" s="0" t="s"/>
+      <x:c r="B22" s="0" t="s"/>
+      <x:c r="C22" s="0" t="s"/>
+      <x:c r="D22" s="0" t="s"/>
+      <x:c r="E22" s="0" t="s"/>
+      <x:c r="F22" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="G22" s="0" t="s">
+        <x:v>64</x:v>
+      </x:c>
+      <x:c r="H22" s="0" t="s">
+        <x:v>65</x:v>
+      </x:c>
+      <x:c r="I22" s="0" t="s"/>
+      <x:c r="J22" s="0" t="s"/>
+      <x:c r="K22" s="0" t="s"/>
+    </x:row>
+  </x:sheetData>
+  <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
+  <x:pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>
+  <x:pageSetup paperSize="1" scale="100" pageOrder="downThenOver" orientation="default" blackAndWhite="0" draft="0" cellComments="none" errors="displayed"/>
+  <x:headerFooter/>
+  <x:tableParts count="1">
+    <x:tablePart r:id="rId11"/>
   </x:tableParts>
 </x:worksheet>
 </file>
--- a/SESAccounts.xlsx
+++ b/SESAccounts.xlsx
@@ -10,6 +10,10 @@
     <x:sheet name="Salesforce_SESCaseAR" sheetId="3" r:id="rId3"/>
     <x:sheet name="Salesforce_SESCaseDSC" sheetId="4" r:id="rId4"/>
     <x:sheet name="Salesforce_SESCaseMI" sheetId="5" r:id="rId5"/>
+    <x:sheet name="Salesforce_SESCaseMC" sheetId="6" r:id="rId6"/>
+    <x:sheet name="Salesforce_SESCaseOSJ" sheetId="7" r:id="rId7"/>
+    <x:sheet name="Salesforce_SESCaseWC" sheetId="8" r:id="rId8"/>
+    <x:sheet name="Salesforce_SESAccounts" sheetId="9" r:id="rId9"/>
   </x:sheets>
   <x:definedNames/>
   <x:calcPr calcId="125725"/>
@@ -17,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="76">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="119">
   <x:si>
     <x:t>TestScenarioID</x:t>
   </x:si>
@@ -245,6 +249,135 @@
   </x:si>
   <x:si>
     <x:t>User should be able to input value for the Location field.</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Valid value for required field Received Date </x:t>
+  </x:si>
+  <x:si>
+    <x:t>Input valid value in the  Received Date field.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>User should be able to input value for the Received Date field.</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Valid value for required field Complaint Stage </x:t>
+  </x:si>
+  <x:si>
+    <x:t>Input valid value in the  Complaint Stage field.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>User should be able to input value for the Complaint Stage field.</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Valid value for required field Complaint Category </x:t>
+  </x:si>
+  <x:si>
+    <x:t>Step 10</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Input valid value in the  Complaint Category field.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>User should be able to input value for the Complaint Category field.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Step 11</x:t>
+  </x:si>
+  <x:si>
+    <x:t>New Account</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Click on the Account tab, and click on New button</x:t>
+  </x:si>
+  <x:si>
+    <x:t>User should be navigated to the New  Account Page</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Valid value for required field Name </x:t>
+  </x:si>
+  <x:si>
+    <x:t>Input valid value in the  Name field.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>User should be able to input value for the Name field.</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Valid value for required field Email </x:t>
+  </x:si>
+  <x:si>
+    <x:t>Input valid value in the  Email field.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>User should be able to input value for the Email field.</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Valid value for required field Date of Birth </x:t>
+  </x:si>
+  <x:si>
+    <x:t>Input valid value in the  Date of Birth field.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>User should be able to input value for the Date of Birth field.</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Valid value for required field Phone </x:t>
+  </x:si>
+  <x:si>
+    <x:t>Input valid value in the  Phone field.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>User should be able to input value for the Phone field.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Click on Save button to save Account with fields</x:t>
+  </x:si>
+  <x:si>
+    <x:t>User should be able to validate that a New Account is created</x:t>
+  </x:si>
+  <x:si>
+    <x:t>View Account</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Click on the Account tab,  and select a Account </x:t>
+  </x:si>
+  <x:si>
+    <x:t>User should be navigated to the Account Page</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Click on Account name to View the Details</x:t>
+  </x:si>
+  <x:si>
+    <x:t>User should be able to view the Account Details</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Edit Account</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Click on the Account tab,  and click on existing Account to modify</x:t>
+  </x:si>
+  <x:si>
+    <x:t>User is navigated to the Account Details page</x:t>
+  </x:si>
+  <x:si>
+    <x:t>User should be able to validate that the Account is edited</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Delete Account</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Click on the Account tab,  and select the existing  Account to delete</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Click on to the Delete to Delete the Account</x:t>
+  </x:si>
+  <x:si>
+    <x:t>User should be able to validate that a pop-up is displayed asking for confirmation to delete the Account</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Click on Confirm / OK to delete the  Account</x:t>
+  </x:si>
+  <x:si>
+    <x:t>User should be able to validate the Account is deleted</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -390,6 +523,86 @@
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
 <x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table13" displayName="Table13" ref="A1:K22" totalsRowShown="0">
   <x:autoFilter ref="A1:K22"/>
+  <x:tableColumns count="11">
+    <x:tableColumn id="1" name="TestScenarioID"/>
+    <x:tableColumn id="2" name="TestCaseID"/>
+    <x:tableColumn id="3" name="Description"/>
+    <x:tableColumn id="4" name="Precondition"/>
+    <x:tableColumn id="5" name="TestData"/>
+    <x:tableColumn id="6" name="Steps"/>
+    <x:tableColumn id="7" name="UserAction"/>
+    <x:tableColumn id="8" name="ExpectedResult"/>
+    <x:tableColumn id="9" name="Approved/Rejected"/>
+    <x:tableColumn id="10" name="ReasonToReject"/>
+    <x:tableColumn id="11" name="IsModified/Added"/>
+  </x:tableColumns>
+  <x:tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</x:table>
+</file>
+
+<file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Table14" displayName="Table14" ref="A1:K22" totalsRowShown="0">
+  <x:autoFilter ref="A1:K22"/>
+  <x:tableColumns count="11">
+    <x:tableColumn id="1" name="TestScenarioID"/>
+    <x:tableColumn id="2" name="TestCaseID"/>
+    <x:tableColumn id="3" name="Description"/>
+    <x:tableColumn id="4" name="Precondition"/>
+    <x:tableColumn id="5" name="TestData"/>
+    <x:tableColumn id="6" name="Steps"/>
+    <x:tableColumn id="7" name="UserAction"/>
+    <x:tableColumn id="8" name="ExpectedResult"/>
+    <x:tableColumn id="9" name="Approved/Rejected"/>
+    <x:tableColumn id="10" name="ReasonToReject"/>
+    <x:tableColumn id="11" name="IsModified/Added"/>
+  </x:tableColumns>
+  <x:tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</x:table>
+</file>
+
+<file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="Table15" displayName="Table15" ref="A1:K22" totalsRowShown="0">
+  <x:autoFilter ref="A1:K22"/>
+  <x:tableColumns count="11">
+    <x:tableColumn id="1" name="TestScenarioID"/>
+    <x:tableColumn id="2" name="TestCaseID"/>
+    <x:tableColumn id="3" name="Description"/>
+    <x:tableColumn id="4" name="Precondition"/>
+    <x:tableColumn id="5" name="TestData"/>
+    <x:tableColumn id="6" name="Steps"/>
+    <x:tableColumn id="7" name="UserAction"/>
+    <x:tableColumn id="8" name="ExpectedResult"/>
+    <x:tableColumn id="9" name="Approved/Rejected"/>
+    <x:tableColumn id="10" name="ReasonToReject"/>
+    <x:tableColumn id="11" name="IsModified/Added"/>
+  </x:tableColumns>
+  <x:tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</x:table>
+</file>
+
+<file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7" name="Table16" displayName="Table16" ref="A1:K28" totalsRowShown="0">
+  <x:autoFilter ref="A1:K28"/>
+  <x:tableColumns count="11">
+    <x:tableColumn id="1" name="TestScenarioID"/>
+    <x:tableColumn id="2" name="TestCaseID"/>
+    <x:tableColumn id="3" name="Description"/>
+    <x:tableColumn id="4" name="Precondition"/>
+    <x:tableColumn id="5" name="TestData"/>
+    <x:tableColumn id="6" name="Steps"/>
+    <x:tableColumn id="7" name="UserAction"/>
+    <x:tableColumn id="8" name="ExpectedResult"/>
+    <x:tableColumn id="9" name="Approved/Rejected"/>
+    <x:tableColumn id="10" name="ReasonToReject"/>
+    <x:tableColumn id="11" name="IsModified/Added"/>
+  </x:tableColumns>
+  <x:tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</x:table>
+</file>
+
+<file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="8" name="Table17" displayName="Table17" ref="A1:K52" totalsRowShown="0">
+  <x:autoFilter ref="A1:K52"/>
   <x:tableColumns count="11">
     <x:tableColumn id="1" name="TestScenarioID"/>
     <x:tableColumn id="2" name="TestCaseID"/>
@@ -1210,7 +1423,7 @@
   <x:pageSetup paperSize="1" scale="100" pageOrder="downThenOver" orientation="default" blackAndWhite="0" draft="0" cellComments="none" errors="displayed"/>
   <x:headerFooter/>
   <x:tableParts count="1">
-    <x:tablePart r:id="rId8"/>
+    <x:tablePart r:id="rId12"/>
   </x:tableParts>
 </x:worksheet>
 </file>
@@ -1651,7 +1864,7 @@
   <x:pageSetup paperSize="1" scale="100" pageOrder="downThenOver" orientation="default" blackAndWhite="0" draft="0" cellComments="none" errors="displayed"/>
   <x:headerFooter/>
   <x:tableParts count="1">
-    <x:tablePart r:id="rId9"/>
+    <x:tablePart r:id="rId13"/>
   </x:tableParts>
 </x:worksheet>
 </file>
@@ -2218,7 +2431,7 @@
   <x:pageSetup paperSize="1" scale="100" pageOrder="downThenOver" orientation="default" blackAndWhite="0" draft="0" cellComments="none" errors="displayed"/>
   <x:headerFooter/>
   <x:tableParts count="1">
-    <x:tablePart r:id="rId10"/>
+    <x:tablePart r:id="rId14"/>
   </x:tableParts>
 </x:worksheet>
 </file>
@@ -2743,7 +2956,2891 @@
   <x:pageSetup paperSize="1" scale="100" pageOrder="downThenOver" orientation="default" blackAndWhite="0" draft="0" cellComments="none" errors="displayed"/>
   <x:headerFooter/>
   <x:tableParts count="1">
-    <x:tablePart r:id="rId11"/>
+    <x:tablePart r:id="rId15"/>
+  </x:tableParts>
+</x:worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <x:sheetPr>
+    <x:outlinePr summaryBelow="1" summaryRight="1"/>
+  </x:sheetPr>
+  <x:dimension ref="A1:K22"/>
+  <x:sheetViews>
+    <x:sheetView workbookViewId="0"/>
+  </x:sheetViews>
+  <x:sheetFormatPr defaultRowHeight="15"/>
+  <x:cols>
+    <x:col min="1" max="1" width="15.980625" style="0" customWidth="1"/>
+    <x:col min="2" max="2" width="26.270625" style="0" customWidth="1"/>
+    <x:col min="3" max="3" width="12.980625" style="0" customWidth="1"/>
+    <x:col min="4" max="4" width="69.980624999999989" style="0" customWidth="1"/>
+    <x:col min="5" max="5" width="189.840625" style="0" customWidth="1"/>
+    <x:col min="6" max="6" width="7.840625" style="0" customWidth="1"/>
+    <x:col min="7" max="7" width="55.840625" style="0" customWidth="1"/>
+    <x:col min="8" max="8" width="90.550625" style="0" customWidth="1"/>
+    <x:col min="9" max="9" width="20.410625" style="0" customWidth="1"/>
+    <x:col min="10" max="10" width="16.980625" style="0" customWidth="1"/>
+    <x:col min="11" max="11" width="18.980625" style="0" customWidth="1"/>
+  </x:cols>
+  <x:sheetData>
+    <x:row r="1" spans="1:11">
+      <x:c r="A1" s="0" t="s">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B1" s="0" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="C1" s="0" t="s">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="D1" s="0" t="s">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="E1" s="0" t="s">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="F1" s="0" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="G1" s="0" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="H1" s="0" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="I1" s="0" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="J1" s="0" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="K1" s="0" t="s">
+        <x:v>10</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="2" spans="1:11">
+      <x:c r="A2" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="B2" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="C2" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="D2" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="E2" s="0" t="s"/>
+      <x:c r="F2" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="G2" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="H2" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="I2" s="0" t="s"/>
+      <x:c r="J2" s="0" t="s"/>
+      <x:c r="K2" s="0" t="s"/>
+    </x:row>
+    <x:row r="3" spans="1:11">
+      <x:c r="A3" s="0" t="s"/>
+      <x:c r="B3" s="0" t="s"/>
+      <x:c r="C3" s="0" t="s"/>
+      <x:c r="D3" s="0" t="s"/>
+      <x:c r="E3" s="0" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="F3" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="G3" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="H3" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="I3" s="0" t="s"/>
+      <x:c r="J3" s="0" t="s"/>
+      <x:c r="K3" s="0" t="s"/>
+    </x:row>
+    <x:row r="4" spans="1:11">
+      <x:c r="A4" s="0" t="s"/>
+      <x:c r="B4" s="0" t="s"/>
+      <x:c r="C4" s="0" t="s"/>
+      <x:c r="D4" s="0" t="s"/>
+      <x:c r="E4" s="0" t="s">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="F4" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="G4" s="0" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="H4" s="0" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="I4" s="0" t="s"/>
+      <x:c r="J4" s="0" t="s"/>
+      <x:c r="K4" s="0" t="s"/>
+    </x:row>
+    <x:row r="5" spans="1:11">
+      <x:c r="A5" s="0" t="s"/>
+      <x:c r="B5" s="0" t="s"/>
+      <x:c r="C5" s="0" t="s"/>
+      <x:c r="D5" s="0" t="s"/>
+      <x:c r="E5" s="0" t="s">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="F5" s="0" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="G5" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="H5" s="0" t="s">
+        <x:v>33</x:v>
+      </x:c>
+      <x:c r="I5" s="0" t="s"/>
+      <x:c r="J5" s="0" t="s"/>
+      <x:c r="K5" s="0" t="s"/>
+    </x:row>
+    <x:row r="6" spans="1:11">
+      <x:c r="A6" s="0" t="s"/>
+      <x:c r="B6" s="0" t="s"/>
+      <x:c r="C6" s="0" t="s"/>
+      <x:c r="D6" s="0" t="s"/>
+      <x:c r="E6" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="F6" s="0" t="s">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="G6" s="0" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="H6" s="0" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="I6" s="0" t="s"/>
+      <x:c r="J6" s="0" t="s"/>
+      <x:c r="K6" s="0" t="s"/>
+    </x:row>
+    <x:row r="7" spans="1:11">
+      <x:c r="A7" s="0" t="s"/>
+      <x:c r="B7" s="0" t="s"/>
+      <x:c r="C7" s="0" t="s"/>
+      <x:c r="D7" s="0" t="s"/>
+      <x:c r="E7" s="0" t="s">
+        <x:v>34</x:v>
+      </x:c>
+      <x:c r="F7" s="0" t="s">
+        <x:v>35</x:v>
+      </x:c>
+      <x:c r="G7" s="0" t="s">
+        <x:v>36</x:v>
+      </x:c>
+      <x:c r="H7" s="0" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="I7" s="0" t="s"/>
+      <x:c r="J7" s="0" t="s"/>
+      <x:c r="K7" s="0" t="s"/>
+    </x:row>
+    <x:row r="8" spans="1:11">
+      <x:c r="A8" s="0" t="s"/>
+      <x:c r="B8" s="0" t="s"/>
+      <x:c r="C8" s="0" t="s"/>
+      <x:c r="D8" s="0" t="s"/>
+      <x:c r="E8" s="0" t="s">
+        <x:v>38</x:v>
+      </x:c>
+      <x:c r="F8" s="0" t="s">
+        <x:v>39</x:v>
+      </x:c>
+      <x:c r="G8" s="0" t="s">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c r="H8" s="0" t="s">
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="I8" s="0" t="s"/>
+      <x:c r="J8" s="0" t="s"/>
+      <x:c r="K8" s="0" t="s"/>
+    </x:row>
+    <x:row r="9" spans="1:11">
+      <x:c r="A9" s="0" t="s"/>
+      <x:c r="B9" s="0" t="s"/>
+      <x:c r="C9" s="0" t="s"/>
+      <x:c r="D9" s="0" t="s"/>
+      <x:c r="E9" s="0" t="s"/>
+      <x:c r="F9" s="0" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="G9" s="0" t="s">
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="H9" s="0" t="s">
+        <x:v>44</x:v>
+      </x:c>
+      <x:c r="I9" s="0" t="s"/>
+      <x:c r="J9" s="0" t="s"/>
+      <x:c r="K9" s="0" t="s"/>
+    </x:row>
+    <x:row r="10" spans="1:11">
+      <x:c r="A10" s="0" t="s">
+        <x:v>45</x:v>
+      </x:c>
+      <x:c r="B10" s="0" t="s">
+        <x:v>46</x:v>
+      </x:c>
+      <x:c r="C10" s="0" t="s">
+        <x:v>47</x:v>
+      </x:c>
+      <x:c r="D10" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="E10" s="0" t="s"/>
+      <x:c r="F10" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="G10" s="0" t="s">
+        <x:v>48</x:v>
+      </x:c>
+      <x:c r="H10" s="0" t="s">
+        <x:v>49</x:v>
+      </x:c>
+      <x:c r="I10" s="0" t="s"/>
+      <x:c r="J10" s="0" t="s"/>
+      <x:c r="K10" s="0" t="s"/>
+    </x:row>
+    <x:row r="11" spans="1:11">
+      <x:c r="A11" s="0" t="s"/>
+      <x:c r="B11" s="0" t="s"/>
+      <x:c r="C11" s="0" t="s"/>
+      <x:c r="D11" s="0" t="s"/>
+      <x:c r="E11" s="0" t="s"/>
+      <x:c r="F11" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="G11" s="0" t="s">
+        <x:v>50</x:v>
+      </x:c>
+      <x:c r="H11" s="0" t="s">
+        <x:v>51</x:v>
+      </x:c>
+      <x:c r="I11" s="0" t="s"/>
+      <x:c r="J11" s="0" t="s"/>
+      <x:c r="K11" s="0" t="s"/>
+    </x:row>
+    <x:row r="12" spans="1:11">
+      <x:c r="A12" s="0" t="s">
+        <x:v>52</x:v>
+      </x:c>
+      <x:c r="B12" s="0" t="s">
+        <x:v>53</x:v>
+      </x:c>
+      <x:c r="C12" s="0" t="s">
+        <x:v>54</x:v>
+      </x:c>
+      <x:c r="D12" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="E12" s="0" t="s"/>
+      <x:c r="F12" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="G12" s="0" t="s">
+        <x:v>55</x:v>
+      </x:c>
+      <x:c r="H12" s="0" t="s">
+        <x:v>56</x:v>
+      </x:c>
+      <x:c r="I12" s="0" t="s"/>
+      <x:c r="J12" s="0" t="s"/>
+      <x:c r="K12" s="0" t="s"/>
+    </x:row>
+    <x:row r="13" spans="1:11">
+      <x:c r="A13" s="0" t="s"/>
+      <x:c r="B13" s="0" t="s"/>
+      <x:c r="C13" s="0" t="s"/>
+      <x:c r="D13" s="0" t="s"/>
+      <x:c r="E13" s="0" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="F13" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="G13" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="H13" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="I13" s="0" t="s"/>
+      <x:c r="J13" s="0" t="s"/>
+      <x:c r="K13" s="0" t="s"/>
+    </x:row>
+    <x:row r="14" spans="1:11">
+      <x:c r="A14" s="0" t="s"/>
+      <x:c r="B14" s="0" t="s"/>
+      <x:c r="C14" s="0" t="s"/>
+      <x:c r="D14" s="0" t="s"/>
+      <x:c r="E14" s="0" t="s">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="F14" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="G14" s="0" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="H14" s="0" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="I14" s="0" t="s"/>
+      <x:c r="J14" s="0" t="s"/>
+      <x:c r="K14" s="0" t="s"/>
+    </x:row>
+    <x:row r="15" spans="1:11">
+      <x:c r="A15" s="0" t="s"/>
+      <x:c r="B15" s="0" t="s"/>
+      <x:c r="C15" s="0" t="s"/>
+      <x:c r="D15" s="0" t="s"/>
+      <x:c r="E15" s="0" t="s">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="F15" s="0" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="G15" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="H15" s="0" t="s">
+        <x:v>33</x:v>
+      </x:c>
+      <x:c r="I15" s="0" t="s"/>
+      <x:c r="J15" s="0" t="s"/>
+      <x:c r="K15" s="0" t="s"/>
+    </x:row>
+    <x:row r="16" spans="1:11">
+      <x:c r="A16" s="0" t="s"/>
+      <x:c r="B16" s="0" t="s"/>
+      <x:c r="C16" s="0" t="s"/>
+      <x:c r="D16" s="0" t="s"/>
+      <x:c r="E16" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="F16" s="0" t="s">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="G16" s="0" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="H16" s="0" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="I16" s="0" t="s"/>
+      <x:c r="J16" s="0" t="s"/>
+      <x:c r="K16" s="0" t="s"/>
+    </x:row>
+    <x:row r="17" spans="1:11">
+      <x:c r="A17" s="0" t="s"/>
+      <x:c r="B17" s="0" t="s"/>
+      <x:c r="C17" s="0" t="s"/>
+      <x:c r="D17" s="0" t="s"/>
+      <x:c r="E17" s="0" t="s">
+        <x:v>34</x:v>
+      </x:c>
+      <x:c r="F17" s="0" t="s">
+        <x:v>35</x:v>
+      </x:c>
+      <x:c r="G17" s="0" t="s">
+        <x:v>36</x:v>
+      </x:c>
+      <x:c r="H17" s="0" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="I17" s="0" t="s"/>
+      <x:c r="J17" s="0" t="s"/>
+      <x:c r="K17" s="0" t="s"/>
+    </x:row>
+    <x:row r="18" spans="1:11">
+      <x:c r="A18" s="0" t="s"/>
+      <x:c r="B18" s="0" t="s"/>
+      <x:c r="C18" s="0" t="s"/>
+      <x:c r="D18" s="0" t="s"/>
+      <x:c r="E18" s="0" t="s">
+        <x:v>38</x:v>
+      </x:c>
+      <x:c r="F18" s="0" t="s">
+        <x:v>39</x:v>
+      </x:c>
+      <x:c r="G18" s="0" t="s">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c r="H18" s="0" t="s">
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="I18" s="0" t="s"/>
+      <x:c r="J18" s="0" t="s"/>
+      <x:c r="K18" s="0" t="s"/>
+    </x:row>
+    <x:row r="19" spans="1:11">
+      <x:c r="A19" s="0" t="s"/>
+      <x:c r="B19" s="0" t="s"/>
+      <x:c r="C19" s="0" t="s"/>
+      <x:c r="D19" s="0" t="s"/>
+      <x:c r="E19" s="0" t="s"/>
+      <x:c r="F19" s="0" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="G19" s="0" t="s">
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="H19" s="0" t="s">
+        <x:v>57</x:v>
+      </x:c>
+      <x:c r="I19" s="0" t="s"/>
+      <x:c r="J19" s="0" t="s"/>
+      <x:c r="K19" s="0" t="s"/>
+    </x:row>
+    <x:row r="20" spans="1:11">
+      <x:c r="A20" s="0" t="s">
+        <x:v>58</x:v>
+      </x:c>
+      <x:c r="B20" s="0" t="s">
+        <x:v>59</x:v>
+      </x:c>
+      <x:c r="C20" s="0" t="s">
+        <x:v>60</x:v>
+      </x:c>
+      <x:c r="D20" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="E20" s="0" t="s"/>
+      <x:c r="F20" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="G20" s="0" t="s">
+        <x:v>61</x:v>
+      </x:c>
+      <x:c r="H20" s="0" t="s">
+        <x:v>56</x:v>
+      </x:c>
+      <x:c r="I20" s="0" t="s"/>
+      <x:c r="J20" s="0" t="s"/>
+      <x:c r="K20" s="0" t="s"/>
+    </x:row>
+    <x:row r="21" spans="1:11">
+      <x:c r="A21" s="0" t="s"/>
+      <x:c r="B21" s="0" t="s"/>
+      <x:c r="C21" s="0" t="s"/>
+      <x:c r="D21" s="0" t="s"/>
+      <x:c r="E21" s="0" t="s"/>
+      <x:c r="F21" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="G21" s="0" t="s">
+        <x:v>62</x:v>
+      </x:c>
+      <x:c r="H21" s="0" t="s">
+        <x:v>63</x:v>
+      </x:c>
+      <x:c r="I21" s="0" t="s"/>
+      <x:c r="J21" s="0" t="s"/>
+      <x:c r="K21" s="0" t="s"/>
+    </x:row>
+    <x:row r="22" spans="1:11">
+      <x:c r="A22" s="0" t="s"/>
+      <x:c r="B22" s="0" t="s"/>
+      <x:c r="C22" s="0" t="s"/>
+      <x:c r="D22" s="0" t="s"/>
+      <x:c r="E22" s="0" t="s"/>
+      <x:c r="F22" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="G22" s="0" t="s">
+        <x:v>64</x:v>
+      </x:c>
+      <x:c r="H22" s="0" t="s">
+        <x:v>65</x:v>
+      </x:c>
+      <x:c r="I22" s="0" t="s"/>
+      <x:c r="J22" s="0" t="s"/>
+      <x:c r="K22" s="0" t="s"/>
+    </x:row>
+  </x:sheetData>
+  <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
+  <x:pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>
+  <x:pageSetup paperSize="1" scale="100" pageOrder="downThenOver" orientation="default" blackAndWhite="0" draft="0" cellComments="none" errors="displayed"/>
+  <x:headerFooter/>
+  <x:tableParts count="1">
+    <x:tablePart r:id="rId16"/>
+  </x:tableParts>
+</x:worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <x:sheetPr>
+    <x:outlinePr summaryBelow="1" summaryRight="1"/>
+  </x:sheetPr>
+  <x:dimension ref="A1:K22"/>
+  <x:sheetViews>
+    <x:sheetView workbookViewId="0"/>
+  </x:sheetViews>
+  <x:sheetFormatPr defaultRowHeight="15"/>
+  <x:cols>
+    <x:col min="1" max="1" width="15.980625" style="0" customWidth="1"/>
+    <x:col min="2" max="2" width="26.270625" style="0" customWidth="1"/>
+    <x:col min="3" max="3" width="12.980625" style="0" customWidth="1"/>
+    <x:col min="4" max="4" width="69.980624999999989" style="0" customWidth="1"/>
+    <x:col min="5" max="5" width="189.840625" style="0" customWidth="1"/>
+    <x:col min="6" max="6" width="7.840625" style="0" customWidth="1"/>
+    <x:col min="7" max="7" width="55.840625" style="0" customWidth="1"/>
+    <x:col min="8" max="8" width="90.550625" style="0" customWidth="1"/>
+    <x:col min="9" max="9" width="20.410625" style="0" customWidth="1"/>
+    <x:col min="10" max="10" width="16.980625" style="0" customWidth="1"/>
+    <x:col min="11" max="11" width="18.980625" style="0" customWidth="1"/>
+  </x:cols>
+  <x:sheetData>
+    <x:row r="1" spans="1:11">
+      <x:c r="A1" s="0" t="s">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B1" s="0" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="C1" s="0" t="s">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="D1" s="0" t="s">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="E1" s="0" t="s">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="F1" s="0" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="G1" s="0" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="H1" s="0" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="I1" s="0" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="J1" s="0" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="K1" s="0" t="s">
+        <x:v>10</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="2" spans="1:11">
+      <x:c r="A2" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="B2" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="C2" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="D2" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="E2" s="0" t="s"/>
+      <x:c r="F2" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="G2" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="H2" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="I2" s="0" t="s"/>
+      <x:c r="J2" s="0" t="s"/>
+      <x:c r="K2" s="0" t="s"/>
+    </x:row>
+    <x:row r="3" spans="1:11">
+      <x:c r="A3" s="0" t="s"/>
+      <x:c r="B3" s="0" t="s"/>
+      <x:c r="C3" s="0" t="s"/>
+      <x:c r="D3" s="0" t="s"/>
+      <x:c r="E3" s="0" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="F3" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="G3" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="H3" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="I3" s="0" t="s"/>
+      <x:c r="J3" s="0" t="s"/>
+      <x:c r="K3" s="0" t="s"/>
+    </x:row>
+    <x:row r="4" spans="1:11">
+      <x:c r="A4" s="0" t="s"/>
+      <x:c r="B4" s="0" t="s"/>
+      <x:c r="C4" s="0" t="s"/>
+      <x:c r="D4" s="0" t="s"/>
+      <x:c r="E4" s="0" t="s">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="F4" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="G4" s="0" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="H4" s="0" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="I4" s="0" t="s"/>
+      <x:c r="J4" s="0" t="s"/>
+      <x:c r="K4" s="0" t="s"/>
+    </x:row>
+    <x:row r="5" spans="1:11">
+      <x:c r="A5" s="0" t="s"/>
+      <x:c r="B5" s="0" t="s"/>
+      <x:c r="C5" s="0" t="s"/>
+      <x:c r="D5" s="0" t="s"/>
+      <x:c r="E5" s="0" t="s">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="F5" s="0" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="G5" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="H5" s="0" t="s">
+        <x:v>33</x:v>
+      </x:c>
+      <x:c r="I5" s="0" t="s"/>
+      <x:c r="J5" s="0" t="s"/>
+      <x:c r="K5" s="0" t="s"/>
+    </x:row>
+    <x:row r="6" spans="1:11">
+      <x:c r="A6" s="0" t="s"/>
+      <x:c r="B6" s="0" t="s"/>
+      <x:c r="C6" s="0" t="s"/>
+      <x:c r="D6" s="0" t="s"/>
+      <x:c r="E6" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="F6" s="0" t="s">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="G6" s="0" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="H6" s="0" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="I6" s="0" t="s"/>
+      <x:c r="J6" s="0" t="s"/>
+      <x:c r="K6" s="0" t="s"/>
+    </x:row>
+    <x:row r="7" spans="1:11">
+      <x:c r="A7" s="0" t="s"/>
+      <x:c r="B7" s="0" t="s"/>
+      <x:c r="C7" s="0" t="s"/>
+      <x:c r="D7" s="0" t="s"/>
+      <x:c r="E7" s="0" t="s">
+        <x:v>70</x:v>
+      </x:c>
+      <x:c r="F7" s="0" t="s">
+        <x:v>35</x:v>
+      </x:c>
+      <x:c r="G7" s="0" t="s">
+        <x:v>71</x:v>
+      </x:c>
+      <x:c r="H7" s="0" t="s">
+        <x:v>72</x:v>
+      </x:c>
+      <x:c r="I7" s="0" t="s"/>
+      <x:c r="J7" s="0" t="s"/>
+      <x:c r="K7" s="0" t="s"/>
+    </x:row>
+    <x:row r="8" spans="1:11">
+      <x:c r="A8" s="0" t="s"/>
+      <x:c r="B8" s="0" t="s"/>
+      <x:c r="C8" s="0" t="s"/>
+      <x:c r="D8" s="0" t="s"/>
+      <x:c r="E8" s="0" t="s">
+        <x:v>73</x:v>
+      </x:c>
+      <x:c r="F8" s="0" t="s">
+        <x:v>39</x:v>
+      </x:c>
+      <x:c r="G8" s="0" t="s">
+        <x:v>74</x:v>
+      </x:c>
+      <x:c r="H8" s="0" t="s">
+        <x:v>75</x:v>
+      </x:c>
+      <x:c r="I8" s="0" t="s"/>
+      <x:c r="J8" s="0" t="s"/>
+      <x:c r="K8" s="0" t="s"/>
+    </x:row>
+    <x:row r="9" spans="1:11">
+      <x:c r="A9" s="0" t="s"/>
+      <x:c r="B9" s="0" t="s"/>
+      <x:c r="C9" s="0" t="s"/>
+      <x:c r="D9" s="0" t="s"/>
+      <x:c r="E9" s="0" t="s"/>
+      <x:c r="F9" s="0" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="G9" s="0" t="s">
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="H9" s="0" t="s">
+        <x:v>44</x:v>
+      </x:c>
+      <x:c r="I9" s="0" t="s"/>
+      <x:c r="J9" s="0" t="s"/>
+      <x:c r="K9" s="0" t="s"/>
+    </x:row>
+    <x:row r="10" spans="1:11">
+      <x:c r="A10" s="0" t="s">
+        <x:v>45</x:v>
+      </x:c>
+      <x:c r="B10" s="0" t="s">
+        <x:v>46</x:v>
+      </x:c>
+      <x:c r="C10" s="0" t="s">
+        <x:v>47</x:v>
+      </x:c>
+      <x:c r="D10" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="E10" s="0" t="s"/>
+      <x:c r="F10" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="G10" s="0" t="s">
+        <x:v>48</x:v>
+      </x:c>
+      <x:c r="H10" s="0" t="s">
+        <x:v>49</x:v>
+      </x:c>
+      <x:c r="I10" s="0" t="s"/>
+      <x:c r="J10" s="0" t="s"/>
+      <x:c r="K10" s="0" t="s"/>
+    </x:row>
+    <x:row r="11" spans="1:11">
+      <x:c r="A11" s="0" t="s"/>
+      <x:c r="B11" s="0" t="s"/>
+      <x:c r="C11" s="0" t="s"/>
+      <x:c r="D11" s="0" t="s"/>
+      <x:c r="E11" s="0" t="s"/>
+      <x:c r="F11" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="G11" s="0" t="s">
+        <x:v>50</x:v>
+      </x:c>
+      <x:c r="H11" s="0" t="s">
+        <x:v>51</x:v>
+      </x:c>
+      <x:c r="I11" s="0" t="s"/>
+      <x:c r="J11" s="0" t="s"/>
+      <x:c r="K11" s="0" t="s"/>
+    </x:row>
+    <x:row r="12" spans="1:11">
+      <x:c r="A12" s="0" t="s">
+        <x:v>52</x:v>
+      </x:c>
+      <x:c r="B12" s="0" t="s">
+        <x:v>53</x:v>
+      </x:c>
+      <x:c r="C12" s="0" t="s">
+        <x:v>54</x:v>
+      </x:c>
+      <x:c r="D12" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="E12" s="0" t="s"/>
+      <x:c r="F12" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="G12" s="0" t="s">
+        <x:v>55</x:v>
+      </x:c>
+      <x:c r="H12" s="0" t="s">
+        <x:v>56</x:v>
+      </x:c>
+      <x:c r="I12" s="0" t="s"/>
+      <x:c r="J12" s="0" t="s"/>
+      <x:c r="K12" s="0" t="s"/>
+    </x:row>
+    <x:row r="13" spans="1:11">
+      <x:c r="A13" s="0" t="s"/>
+      <x:c r="B13" s="0" t="s"/>
+      <x:c r="C13" s="0" t="s"/>
+      <x:c r="D13" s="0" t="s"/>
+      <x:c r="E13" s="0" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="F13" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="G13" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="H13" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="I13" s="0" t="s"/>
+      <x:c r="J13" s="0" t="s"/>
+      <x:c r="K13" s="0" t="s"/>
+    </x:row>
+    <x:row r="14" spans="1:11">
+      <x:c r="A14" s="0" t="s"/>
+      <x:c r="B14" s="0" t="s"/>
+      <x:c r="C14" s="0" t="s"/>
+      <x:c r="D14" s="0" t="s"/>
+      <x:c r="E14" s="0" t="s">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="F14" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="G14" s="0" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="H14" s="0" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="I14" s="0" t="s"/>
+      <x:c r="J14" s="0" t="s"/>
+      <x:c r="K14" s="0" t="s"/>
+    </x:row>
+    <x:row r="15" spans="1:11">
+      <x:c r="A15" s="0" t="s"/>
+      <x:c r="B15" s="0" t="s"/>
+      <x:c r="C15" s="0" t="s"/>
+      <x:c r="D15" s="0" t="s"/>
+      <x:c r="E15" s="0" t="s">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="F15" s="0" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="G15" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="H15" s="0" t="s">
+        <x:v>33</x:v>
+      </x:c>
+      <x:c r="I15" s="0" t="s"/>
+      <x:c r="J15" s="0" t="s"/>
+      <x:c r="K15" s="0" t="s"/>
+    </x:row>
+    <x:row r="16" spans="1:11">
+      <x:c r="A16" s="0" t="s"/>
+      <x:c r="B16" s="0" t="s"/>
+      <x:c r="C16" s="0" t="s"/>
+      <x:c r="D16" s="0" t="s"/>
+      <x:c r="E16" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="F16" s="0" t="s">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="G16" s="0" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="H16" s="0" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="I16" s="0" t="s"/>
+      <x:c r="J16" s="0" t="s"/>
+      <x:c r="K16" s="0" t="s"/>
+    </x:row>
+    <x:row r="17" spans="1:11">
+      <x:c r="A17" s="0" t="s"/>
+      <x:c r="B17" s="0" t="s"/>
+      <x:c r="C17" s="0" t="s"/>
+      <x:c r="D17" s="0" t="s"/>
+      <x:c r="E17" s="0" t="s">
+        <x:v>70</x:v>
+      </x:c>
+      <x:c r="F17" s="0" t="s">
+        <x:v>35</x:v>
+      </x:c>
+      <x:c r="G17" s="0" t="s">
+        <x:v>71</x:v>
+      </x:c>
+      <x:c r="H17" s="0" t="s">
+        <x:v>72</x:v>
+      </x:c>
+      <x:c r="I17" s="0" t="s"/>
+      <x:c r="J17" s="0" t="s"/>
+      <x:c r="K17" s="0" t="s"/>
+    </x:row>
+    <x:row r="18" spans="1:11">
+      <x:c r="A18" s="0" t="s"/>
+      <x:c r="B18" s="0" t="s"/>
+      <x:c r="C18" s="0" t="s"/>
+      <x:c r="D18" s="0" t="s"/>
+      <x:c r="E18" s="0" t="s">
+        <x:v>73</x:v>
+      </x:c>
+      <x:c r="F18" s="0" t="s">
+        <x:v>39</x:v>
+      </x:c>
+      <x:c r="G18" s="0" t="s">
+        <x:v>74</x:v>
+      </x:c>
+      <x:c r="H18" s="0" t="s">
+        <x:v>75</x:v>
+      </x:c>
+      <x:c r="I18" s="0" t="s"/>
+      <x:c r="J18" s="0" t="s"/>
+      <x:c r="K18" s="0" t="s"/>
+    </x:row>
+    <x:row r="19" spans="1:11">
+      <x:c r="A19" s="0" t="s"/>
+      <x:c r="B19" s="0" t="s"/>
+      <x:c r="C19" s="0" t="s"/>
+      <x:c r="D19" s="0" t="s"/>
+      <x:c r="E19" s="0" t="s"/>
+      <x:c r="F19" s="0" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="G19" s="0" t="s">
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="H19" s="0" t="s">
+        <x:v>57</x:v>
+      </x:c>
+      <x:c r="I19" s="0" t="s"/>
+      <x:c r="J19" s="0" t="s"/>
+      <x:c r="K19" s="0" t="s"/>
+    </x:row>
+    <x:row r="20" spans="1:11">
+      <x:c r="A20" s="0" t="s">
+        <x:v>58</x:v>
+      </x:c>
+      <x:c r="B20" s="0" t="s">
+        <x:v>59</x:v>
+      </x:c>
+      <x:c r="C20" s="0" t="s">
+        <x:v>60</x:v>
+      </x:c>
+      <x:c r="D20" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="E20" s="0" t="s"/>
+      <x:c r="F20" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="G20" s="0" t="s">
+        <x:v>61</x:v>
+      </x:c>
+      <x:c r="H20" s="0" t="s">
+        <x:v>56</x:v>
+      </x:c>
+      <x:c r="I20" s="0" t="s"/>
+      <x:c r="J20" s="0" t="s"/>
+      <x:c r="K20" s="0" t="s"/>
+    </x:row>
+    <x:row r="21" spans="1:11">
+      <x:c r="A21" s="0" t="s"/>
+      <x:c r="B21" s="0" t="s"/>
+      <x:c r="C21" s="0" t="s"/>
+      <x:c r="D21" s="0" t="s"/>
+      <x:c r="E21" s="0" t="s"/>
+      <x:c r="F21" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="G21" s="0" t="s">
+        <x:v>62</x:v>
+      </x:c>
+      <x:c r="H21" s="0" t="s">
+        <x:v>63</x:v>
+      </x:c>
+      <x:c r="I21" s="0" t="s"/>
+      <x:c r="J21" s="0" t="s"/>
+      <x:c r="K21" s="0" t="s"/>
+    </x:row>
+    <x:row r="22" spans="1:11">
+      <x:c r="A22" s="0" t="s"/>
+      <x:c r="B22" s="0" t="s"/>
+      <x:c r="C22" s="0" t="s"/>
+      <x:c r="D22" s="0" t="s"/>
+      <x:c r="E22" s="0" t="s"/>
+      <x:c r="F22" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="G22" s="0" t="s">
+        <x:v>64</x:v>
+      </x:c>
+      <x:c r="H22" s="0" t="s">
+        <x:v>65</x:v>
+      </x:c>
+      <x:c r="I22" s="0" t="s"/>
+      <x:c r="J22" s="0" t="s"/>
+      <x:c r="K22" s="0" t="s"/>
+    </x:row>
+  </x:sheetData>
+  <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
+  <x:pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>
+  <x:pageSetup paperSize="1" scale="100" pageOrder="downThenOver" orientation="default" blackAndWhite="0" draft="0" cellComments="none" errors="displayed"/>
+  <x:headerFooter/>
+  <x:tableParts count="1">
+    <x:tablePart r:id="rId17"/>
+  </x:tableParts>
+</x:worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <x:sheetPr>
+    <x:outlinePr summaryBelow="1" summaryRight="1"/>
+  </x:sheetPr>
+  <x:dimension ref="A1:K28"/>
+  <x:sheetViews>
+    <x:sheetView workbookViewId="0"/>
+  </x:sheetViews>
+  <x:sheetFormatPr defaultRowHeight="15"/>
+  <x:cols>
+    <x:col min="1" max="1" width="15.980625" style="0" customWidth="1"/>
+    <x:col min="2" max="2" width="26.270625" style="0" customWidth="1"/>
+    <x:col min="3" max="3" width="12.980625" style="0" customWidth="1"/>
+    <x:col min="4" max="4" width="69.980624999999989" style="0" customWidth="1"/>
+    <x:col min="5" max="5" width="189.840625" style="0" customWidth="1"/>
+    <x:col min="6" max="6" width="9.410625" style="0" customWidth="1"/>
+    <x:col min="7" max="7" width="55.840625" style="0" customWidth="1"/>
+    <x:col min="8" max="8" width="90.550625" style="0" customWidth="1"/>
+    <x:col min="9" max="9" width="20.410625" style="0" customWidth="1"/>
+    <x:col min="10" max="10" width="16.980625" style="0" customWidth="1"/>
+    <x:col min="11" max="11" width="18.980625" style="0" customWidth="1"/>
+  </x:cols>
+  <x:sheetData>
+    <x:row r="1" spans="1:11">
+      <x:c r="A1" s="0" t="s">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B1" s="0" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="C1" s="0" t="s">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="D1" s="0" t="s">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="E1" s="0" t="s">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="F1" s="0" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="G1" s="0" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="H1" s="0" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="I1" s="0" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="J1" s="0" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="K1" s="0" t="s">
+        <x:v>10</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="2" spans="1:11">
+      <x:c r="A2" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="B2" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="C2" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="D2" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="E2" s="0" t="s"/>
+      <x:c r="F2" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="G2" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="H2" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="I2" s="0" t="s"/>
+      <x:c r="J2" s="0" t="s"/>
+      <x:c r="K2" s="0" t="s"/>
+    </x:row>
+    <x:row r="3" spans="1:11">
+      <x:c r="A3" s="0" t="s"/>
+      <x:c r="B3" s="0" t="s"/>
+      <x:c r="C3" s="0" t="s"/>
+      <x:c r="D3" s="0" t="s"/>
+      <x:c r="E3" s="0" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="F3" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="G3" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="H3" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="I3" s="0" t="s"/>
+      <x:c r="J3" s="0" t="s"/>
+      <x:c r="K3" s="0" t="s"/>
+    </x:row>
+    <x:row r="4" spans="1:11">
+      <x:c r="A4" s="0" t="s"/>
+      <x:c r="B4" s="0" t="s"/>
+      <x:c r="C4" s="0" t="s"/>
+      <x:c r="D4" s="0" t="s"/>
+      <x:c r="E4" s="0" t="s">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="F4" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="G4" s="0" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="H4" s="0" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="I4" s="0" t="s"/>
+      <x:c r="J4" s="0" t="s"/>
+      <x:c r="K4" s="0" t="s"/>
+    </x:row>
+    <x:row r="5" spans="1:11">
+      <x:c r="A5" s="0" t="s"/>
+      <x:c r="B5" s="0" t="s"/>
+      <x:c r="C5" s="0" t="s"/>
+      <x:c r="D5" s="0" t="s"/>
+      <x:c r="E5" s="0" t="s">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="F5" s="0" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="G5" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="H5" s="0" t="s">
+        <x:v>33</x:v>
+      </x:c>
+      <x:c r="I5" s="0" t="s"/>
+      <x:c r="J5" s="0" t="s"/>
+      <x:c r="K5" s="0" t="s"/>
+    </x:row>
+    <x:row r="6" spans="1:11">
+      <x:c r="A6" s="0" t="s"/>
+      <x:c r="B6" s="0" t="s"/>
+      <x:c r="C6" s="0" t="s"/>
+      <x:c r="D6" s="0" t="s"/>
+      <x:c r="E6" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="F6" s="0" t="s">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="G6" s="0" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="H6" s="0" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="I6" s="0" t="s"/>
+      <x:c r="J6" s="0" t="s"/>
+      <x:c r="K6" s="0" t="s"/>
+    </x:row>
+    <x:row r="7" spans="1:11">
+      <x:c r="A7" s="0" t="s"/>
+      <x:c r="B7" s="0" t="s"/>
+      <x:c r="C7" s="0" t="s"/>
+      <x:c r="D7" s="0" t="s"/>
+      <x:c r="E7" s="0" t="s">
+        <x:v>70</x:v>
+      </x:c>
+      <x:c r="F7" s="0" t="s">
+        <x:v>35</x:v>
+      </x:c>
+      <x:c r="G7" s="0" t="s">
+        <x:v>71</x:v>
+      </x:c>
+      <x:c r="H7" s="0" t="s">
+        <x:v>72</x:v>
+      </x:c>
+      <x:c r="I7" s="0" t="s"/>
+      <x:c r="J7" s="0" t="s"/>
+      <x:c r="K7" s="0" t="s"/>
+    </x:row>
+    <x:row r="8" spans="1:11">
+      <x:c r="A8" s="0" t="s"/>
+      <x:c r="B8" s="0" t="s"/>
+      <x:c r="C8" s="0" t="s"/>
+      <x:c r="D8" s="0" t="s"/>
+      <x:c r="E8" s="0" t="s">
+        <x:v>73</x:v>
+      </x:c>
+      <x:c r="F8" s="0" t="s">
+        <x:v>39</x:v>
+      </x:c>
+      <x:c r="G8" s="0" t="s">
+        <x:v>74</x:v>
+      </x:c>
+      <x:c r="H8" s="0" t="s">
+        <x:v>75</x:v>
+      </x:c>
+      <x:c r="I8" s="0" t="s"/>
+      <x:c r="J8" s="0" t="s"/>
+      <x:c r="K8" s="0" t="s"/>
+    </x:row>
+    <x:row r="9" spans="1:11">
+      <x:c r="A9" s="0" t="s"/>
+      <x:c r="B9" s="0" t="s"/>
+      <x:c r="C9" s="0" t="s"/>
+      <x:c r="D9" s="0" t="s"/>
+      <x:c r="E9" s="0" t="s">
+        <x:v>76</x:v>
+      </x:c>
+      <x:c r="F9" s="0" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="G9" s="0" t="s">
+        <x:v>77</x:v>
+      </x:c>
+      <x:c r="H9" s="0" t="s">
+        <x:v>78</x:v>
+      </x:c>
+      <x:c r="I9" s="0" t="s"/>
+      <x:c r="J9" s="0" t="s"/>
+      <x:c r="K9" s="0" t="s"/>
+    </x:row>
+    <x:row r="10" spans="1:11">
+      <x:c r="A10" s="0" t="s"/>
+      <x:c r="B10" s="0" t="s"/>
+      <x:c r="C10" s="0" t="s"/>
+      <x:c r="D10" s="0" t="s"/>
+      <x:c r="E10" s="0" t="s">
+        <x:v>79</x:v>
+      </x:c>
+      <x:c r="F10" s="0" t="s">
+        <x:v>69</x:v>
+      </x:c>
+      <x:c r="G10" s="0" t="s">
+        <x:v>80</x:v>
+      </x:c>
+      <x:c r="H10" s="0" t="s">
+        <x:v>81</x:v>
+      </x:c>
+      <x:c r="I10" s="0" t="s"/>
+      <x:c r="J10" s="0" t="s"/>
+      <x:c r="K10" s="0" t="s"/>
+    </x:row>
+    <x:row r="11" spans="1:11">
+      <x:c r="A11" s="0" t="s"/>
+      <x:c r="B11" s="0" t="s"/>
+      <x:c r="C11" s="0" t="s"/>
+      <x:c r="D11" s="0" t="s"/>
+      <x:c r="E11" s="0" t="s">
+        <x:v>82</x:v>
+      </x:c>
+      <x:c r="F11" s="0" t="s">
+        <x:v>83</x:v>
+      </x:c>
+      <x:c r="G11" s="0" t="s">
+        <x:v>84</x:v>
+      </x:c>
+      <x:c r="H11" s="0" t="s">
+        <x:v>85</x:v>
+      </x:c>
+      <x:c r="I11" s="0" t="s"/>
+      <x:c r="J11" s="0" t="s"/>
+      <x:c r="K11" s="0" t="s"/>
+    </x:row>
+    <x:row r="12" spans="1:11">
+      <x:c r="A12" s="0" t="s"/>
+      <x:c r="B12" s="0" t="s"/>
+      <x:c r="C12" s="0" t="s"/>
+      <x:c r="D12" s="0" t="s"/>
+      <x:c r="E12" s="0" t="s"/>
+      <x:c r="F12" s="0" t="s">
+        <x:v>86</x:v>
+      </x:c>
+      <x:c r="G12" s="0" t="s">
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="H12" s="0" t="s">
+        <x:v>44</x:v>
+      </x:c>
+      <x:c r="I12" s="0" t="s"/>
+      <x:c r="J12" s="0" t="s"/>
+      <x:c r="K12" s="0" t="s"/>
+    </x:row>
+    <x:row r="13" spans="1:11">
+      <x:c r="A13" s="0" t="s">
+        <x:v>45</x:v>
+      </x:c>
+      <x:c r="B13" s="0" t="s">
+        <x:v>46</x:v>
+      </x:c>
+      <x:c r="C13" s="0" t="s">
+        <x:v>47</x:v>
+      </x:c>
+      <x:c r="D13" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="E13" s="0" t="s"/>
+      <x:c r="F13" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="G13" s="0" t="s">
+        <x:v>48</x:v>
+      </x:c>
+      <x:c r="H13" s="0" t="s">
+        <x:v>49</x:v>
+      </x:c>
+      <x:c r="I13" s="0" t="s"/>
+      <x:c r="J13" s="0" t="s"/>
+      <x:c r="K13" s="0" t="s"/>
+    </x:row>
+    <x:row r="14" spans="1:11">
+      <x:c r="A14" s="0" t="s"/>
+      <x:c r="B14" s="0" t="s"/>
+      <x:c r="C14" s="0" t="s"/>
+      <x:c r="D14" s="0" t="s"/>
+      <x:c r="E14" s="0" t="s"/>
+      <x:c r="F14" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="G14" s="0" t="s">
+        <x:v>50</x:v>
+      </x:c>
+      <x:c r="H14" s="0" t="s">
+        <x:v>51</x:v>
+      </x:c>
+      <x:c r="I14" s="0" t="s"/>
+      <x:c r="J14" s="0" t="s"/>
+      <x:c r="K14" s="0" t="s"/>
+    </x:row>
+    <x:row r="15" spans="1:11">
+      <x:c r="A15" s="0" t="s">
+        <x:v>52</x:v>
+      </x:c>
+      <x:c r="B15" s="0" t="s">
+        <x:v>53</x:v>
+      </x:c>
+      <x:c r="C15" s="0" t="s">
+        <x:v>54</x:v>
+      </x:c>
+      <x:c r="D15" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="E15" s="0" t="s"/>
+      <x:c r="F15" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="G15" s="0" t="s">
+        <x:v>55</x:v>
+      </x:c>
+      <x:c r="H15" s="0" t="s">
+        <x:v>56</x:v>
+      </x:c>
+      <x:c r="I15" s="0" t="s"/>
+      <x:c r="J15" s="0" t="s"/>
+      <x:c r="K15" s="0" t="s"/>
+    </x:row>
+    <x:row r="16" spans="1:11">
+      <x:c r="A16" s="0" t="s"/>
+      <x:c r="B16" s="0" t="s"/>
+      <x:c r="C16" s="0" t="s"/>
+      <x:c r="D16" s="0" t="s"/>
+      <x:c r="E16" s="0" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="F16" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="G16" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="H16" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="I16" s="0" t="s"/>
+      <x:c r="J16" s="0" t="s"/>
+      <x:c r="K16" s="0" t="s"/>
+    </x:row>
+    <x:row r="17" spans="1:11">
+      <x:c r="A17" s="0" t="s"/>
+      <x:c r="B17" s="0" t="s"/>
+      <x:c r="C17" s="0" t="s"/>
+      <x:c r="D17" s="0" t="s"/>
+      <x:c r="E17" s="0" t="s">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="F17" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="G17" s="0" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="H17" s="0" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="I17" s="0" t="s"/>
+      <x:c r="J17" s="0" t="s"/>
+      <x:c r="K17" s="0" t="s"/>
+    </x:row>
+    <x:row r="18" spans="1:11">
+      <x:c r="A18" s="0" t="s"/>
+      <x:c r="B18" s="0" t="s"/>
+      <x:c r="C18" s="0" t="s"/>
+      <x:c r="D18" s="0" t="s"/>
+      <x:c r="E18" s="0" t="s">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="F18" s="0" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="G18" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="H18" s="0" t="s">
+        <x:v>33</x:v>
+      </x:c>
+      <x:c r="I18" s="0" t="s"/>
+      <x:c r="J18" s="0" t="s"/>
+      <x:c r="K18" s="0" t="s"/>
+    </x:row>
+    <x:row r="19" spans="1:11">
+      <x:c r="A19" s="0" t="s"/>
+      <x:c r="B19" s="0" t="s"/>
+      <x:c r="C19" s="0" t="s"/>
+      <x:c r="D19" s="0" t="s"/>
+      <x:c r="E19" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="F19" s="0" t="s">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="G19" s="0" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="H19" s="0" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="I19" s="0" t="s"/>
+      <x:c r="J19" s="0" t="s"/>
+      <x:c r="K19" s="0" t="s"/>
+    </x:row>
+    <x:row r="20" spans="1:11">
+      <x:c r="A20" s="0" t="s"/>
+      <x:c r="B20" s="0" t="s"/>
+      <x:c r="C20" s="0" t="s"/>
+      <x:c r="D20" s="0" t="s"/>
+      <x:c r="E20" s="0" t="s">
+        <x:v>70</x:v>
+      </x:c>
+      <x:c r="F20" s="0" t="s">
+        <x:v>35</x:v>
+      </x:c>
+      <x:c r="G20" s="0" t="s">
+        <x:v>71</x:v>
+      </x:c>
+      <x:c r="H20" s="0" t="s">
+        <x:v>72</x:v>
+      </x:c>
+      <x:c r="I20" s="0" t="s"/>
+      <x:c r="J20" s="0" t="s"/>
+      <x:c r="K20" s="0" t="s"/>
+    </x:row>
+    <x:row r="21" spans="1:11">
+      <x:c r="A21" s="0" t="s"/>
+      <x:c r="B21" s="0" t="s"/>
+      <x:c r="C21" s="0" t="s"/>
+      <x:c r="D21" s="0" t="s"/>
+      <x:c r="E21" s="0" t="s">
+        <x:v>73</x:v>
+      </x:c>
+      <x:c r="F21" s="0" t="s">
+        <x:v>39</x:v>
+      </x:c>
+      <x:c r="G21" s="0" t="s">
+        <x:v>74</x:v>
+      </x:c>
+      <x:c r="H21" s="0" t="s">
+        <x:v>75</x:v>
+      </x:c>
+      <x:c r="I21" s="0" t="s"/>
+      <x:c r="J21" s="0" t="s"/>
+      <x:c r="K21" s="0" t="s"/>
+    </x:row>
+    <x:row r="22" spans="1:11">
+      <x:c r="A22" s="0" t="s"/>
+      <x:c r="B22" s="0" t="s"/>
+      <x:c r="C22" s="0" t="s"/>
+      <x:c r="D22" s="0" t="s"/>
+      <x:c r="E22" s="0" t="s">
+        <x:v>76</x:v>
+      </x:c>
+      <x:c r="F22" s="0" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="G22" s="0" t="s">
+        <x:v>77</x:v>
+      </x:c>
+      <x:c r="H22" s="0" t="s">
+        <x:v>78</x:v>
+      </x:c>
+      <x:c r="I22" s="0" t="s"/>
+      <x:c r="J22" s="0" t="s"/>
+      <x:c r="K22" s="0" t="s"/>
+    </x:row>
+    <x:row r="23" spans="1:11">
+      <x:c r="A23" s="0" t="s"/>
+      <x:c r="B23" s="0" t="s"/>
+      <x:c r="C23" s="0" t="s"/>
+      <x:c r="D23" s="0" t="s"/>
+      <x:c r="E23" s="0" t="s">
+        <x:v>79</x:v>
+      </x:c>
+      <x:c r="F23" s="0" t="s">
+        <x:v>69</x:v>
+      </x:c>
+      <x:c r="G23" s="0" t="s">
+        <x:v>80</x:v>
+      </x:c>
+      <x:c r="H23" s="0" t="s">
+        <x:v>81</x:v>
+      </x:c>
+      <x:c r="I23" s="0" t="s"/>
+      <x:c r="J23" s="0" t="s"/>
+      <x:c r="K23" s="0" t="s"/>
+    </x:row>
+    <x:row r="24" spans="1:11">
+      <x:c r="A24" s="0" t="s"/>
+      <x:c r="B24" s="0" t="s"/>
+      <x:c r="C24" s="0" t="s"/>
+      <x:c r="D24" s="0" t="s"/>
+      <x:c r="E24" s="0" t="s">
+        <x:v>82</x:v>
+      </x:c>
+      <x:c r="F24" s="0" t="s">
+        <x:v>83</x:v>
+      </x:c>
+      <x:c r="G24" s="0" t="s">
+        <x:v>84</x:v>
+      </x:c>
+      <x:c r="H24" s="0" t="s">
+        <x:v>85</x:v>
+      </x:c>
+      <x:c r="I24" s="0" t="s"/>
+      <x:c r="J24" s="0" t="s"/>
+      <x:c r="K24" s="0" t="s"/>
+    </x:row>
+    <x:row r="25" spans="1:11">
+      <x:c r="A25" s="0" t="s"/>
+      <x:c r="B25" s="0" t="s"/>
+      <x:c r="C25" s="0" t="s"/>
+      <x:c r="D25" s="0" t="s"/>
+      <x:c r="E25" s="0" t="s"/>
+      <x:c r="F25" s="0" t="s">
+        <x:v>86</x:v>
+      </x:c>
+      <x:c r="G25" s="0" t="s">
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="H25" s="0" t="s">
+        <x:v>57</x:v>
+      </x:c>
+      <x:c r="I25" s="0" t="s"/>
+      <x:c r="J25" s="0" t="s"/>
+      <x:c r="K25" s="0" t="s"/>
+    </x:row>
+    <x:row r="26" spans="1:11">
+      <x:c r="A26" s="0" t="s">
+        <x:v>58</x:v>
+      </x:c>
+      <x:c r="B26" s="0" t="s">
+        <x:v>59</x:v>
+      </x:c>
+      <x:c r="C26" s="0" t="s">
+        <x:v>60</x:v>
+      </x:c>
+      <x:c r="D26" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="E26" s="0" t="s"/>
+      <x:c r="F26" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="G26" s="0" t="s">
+        <x:v>61</x:v>
+      </x:c>
+      <x:c r="H26" s="0" t="s">
+        <x:v>56</x:v>
+      </x:c>
+      <x:c r="I26" s="0" t="s"/>
+      <x:c r="J26" s="0" t="s"/>
+      <x:c r="K26" s="0" t="s"/>
+    </x:row>
+    <x:row r="27" spans="1:11">
+      <x:c r="A27" s="0" t="s"/>
+      <x:c r="B27" s="0" t="s"/>
+      <x:c r="C27" s="0" t="s"/>
+      <x:c r="D27" s="0" t="s"/>
+      <x:c r="E27" s="0" t="s"/>
+      <x:c r="F27" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="G27" s="0" t="s">
+        <x:v>62</x:v>
+      </x:c>
+      <x:c r="H27" s="0" t="s">
+        <x:v>63</x:v>
+      </x:c>
+      <x:c r="I27" s="0" t="s"/>
+      <x:c r="J27" s="0" t="s"/>
+      <x:c r="K27" s="0" t="s"/>
+    </x:row>
+    <x:row r="28" spans="1:11">
+      <x:c r="A28" s="0" t="s"/>
+      <x:c r="B28" s="0" t="s"/>
+      <x:c r="C28" s="0" t="s"/>
+      <x:c r="D28" s="0" t="s"/>
+      <x:c r="E28" s="0" t="s"/>
+      <x:c r="F28" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="G28" s="0" t="s">
+        <x:v>64</x:v>
+      </x:c>
+      <x:c r="H28" s="0" t="s">
+        <x:v>65</x:v>
+      </x:c>
+      <x:c r="I28" s="0" t="s"/>
+      <x:c r="J28" s="0" t="s"/>
+      <x:c r="K28" s="0" t="s"/>
+    </x:row>
+  </x:sheetData>
+  <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
+  <x:pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>
+  <x:pageSetup paperSize="1" scale="100" pageOrder="downThenOver" orientation="default" blackAndWhite="0" draft="0" cellComments="none" errors="displayed"/>
+  <x:headerFooter/>
+  <x:tableParts count="1">
+    <x:tablePart r:id="rId18"/>
+  </x:tableParts>
+</x:worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <x:sheetPr>
+    <x:outlinePr summaryBelow="1" summaryRight="1"/>
+  </x:sheetPr>
+  <x:dimension ref="A1:K52"/>
+  <x:sheetViews>
+    <x:sheetView workbookViewId="0"/>
+  </x:sheetViews>
+  <x:sheetFormatPr defaultRowHeight="15"/>
+  <x:cols>
+    <x:col min="1" max="1" width="15.980625" style="0" customWidth="1"/>
+    <x:col min="2" max="2" width="26.270625" style="0" customWidth="1"/>
+    <x:col min="3" max="3" width="16.550625" style="0" customWidth="1"/>
+    <x:col min="4" max="4" width="69.980624999999989" style="0" customWidth="1"/>
+    <x:col min="5" max="5" width="40.270625" style="0" customWidth="1"/>
+    <x:col min="6" max="6" width="7.840625" style="0" customWidth="1"/>
+    <x:col min="7" max="7" width="61.840625" style="0" customWidth="1"/>
+    <x:col min="8" max="8" width="93.550625" style="0" customWidth="1"/>
+    <x:col min="9" max="9" width="20.410625" style="0" customWidth="1"/>
+    <x:col min="10" max="10" width="16.980625" style="0" customWidth="1"/>
+    <x:col min="11" max="11" width="18.980625" style="0" customWidth="1"/>
+  </x:cols>
+  <x:sheetData>
+    <x:row r="1" spans="1:11">
+      <x:c r="A1" s="0" t="s">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B1" s="0" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="C1" s="0" t="s">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="D1" s="0" t="s">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="E1" s="0" t="s">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="F1" s="0" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="G1" s="0" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="H1" s="0" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="I1" s="0" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="J1" s="0" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="K1" s="0" t="s">
+        <x:v>10</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="2" spans="1:11">
+      <x:c r="A2" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="B2" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="C2" s="0" t="s">
+        <x:v>87</x:v>
+      </x:c>
+      <x:c r="D2" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="E2" s="0" t="s"/>
+      <x:c r="F2" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="G2" s="0" t="s">
+        <x:v>88</x:v>
+      </x:c>
+      <x:c r="H2" s="0" t="s">
+        <x:v>89</x:v>
+      </x:c>
+      <x:c r="I2" s="0" t="s"/>
+      <x:c r="J2" s="0" t="s"/>
+      <x:c r="K2" s="0" t="s"/>
+    </x:row>
+    <x:row r="3" spans="1:11">
+      <x:c r="A3" s="0" t="s"/>
+      <x:c r="B3" s="0" t="s"/>
+      <x:c r="C3" s="0" t="s"/>
+      <x:c r="D3" s="0" t="s"/>
+      <x:c r="E3" s="0" t="s">
+        <x:v>90</x:v>
+      </x:c>
+      <x:c r="F3" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="G3" s="0" t="s">
+        <x:v>91</x:v>
+      </x:c>
+      <x:c r="H3" s="0" t="s">
+        <x:v>92</x:v>
+      </x:c>
+      <x:c r="I3" s="0" t="s"/>
+      <x:c r="J3" s="0" t="s"/>
+      <x:c r="K3" s="0" t="s"/>
+    </x:row>
+    <x:row r="4" spans="1:11">
+      <x:c r="A4" s="0" t="s"/>
+      <x:c r="B4" s="0" t="s"/>
+      <x:c r="C4" s="0" t="s"/>
+      <x:c r="D4" s="0" t="s"/>
+      <x:c r="E4" s="0" t="s">
+        <x:v>93</x:v>
+      </x:c>
+      <x:c r="F4" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="G4" s="0" t="s">
+        <x:v>94</x:v>
+      </x:c>
+      <x:c r="H4" s="0" t="s">
+        <x:v>95</x:v>
+      </x:c>
+      <x:c r="I4" s="0" t="s"/>
+      <x:c r="J4" s="0" t="s"/>
+      <x:c r="K4" s="0" t="s"/>
+    </x:row>
+    <x:row r="5" spans="1:11">
+      <x:c r="A5" s="0" t="s"/>
+      <x:c r="B5" s="0" t="s"/>
+      <x:c r="C5" s="0" t="s"/>
+      <x:c r="D5" s="0" t="s"/>
+      <x:c r="E5" s="0" t="s">
+        <x:v>96</x:v>
+      </x:c>
+      <x:c r="F5" s="0" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="G5" s="0" t="s">
+        <x:v>97</x:v>
+      </x:c>
+      <x:c r="H5" s="0" t="s">
+        <x:v>98</x:v>
+      </x:c>
+      <x:c r="I5" s="0" t="s"/>
+      <x:c r="J5" s="0" t="s"/>
+      <x:c r="K5" s="0" t="s"/>
+    </x:row>
+    <x:row r="6" spans="1:11">
+      <x:c r="A6" s="0" t="s"/>
+      <x:c r="B6" s="0" t="s"/>
+      <x:c r="C6" s="0" t="s"/>
+      <x:c r="D6" s="0" t="s"/>
+      <x:c r="E6" s="0" t="s">
+        <x:v>99</x:v>
+      </x:c>
+      <x:c r="F6" s="0" t="s">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="G6" s="0" t="s">
+        <x:v>100</x:v>
+      </x:c>
+      <x:c r="H6" s="0" t="s">
+        <x:v>101</x:v>
+      </x:c>
+      <x:c r="I6" s="0" t="s"/>
+      <x:c r="J6" s="0" t="s"/>
+      <x:c r="K6" s="0" t="s"/>
+    </x:row>
+    <x:row r="7" spans="1:11">
+      <x:c r="A7" s="0" t="s"/>
+      <x:c r="B7" s="0" t="s"/>
+      <x:c r="C7" s="0" t="s"/>
+      <x:c r="D7" s="0" t="s"/>
+      <x:c r="E7" s="0" t="s"/>
+      <x:c r="F7" s="0" t="s">
+        <x:v>35</x:v>
+      </x:c>
+      <x:c r="G7" s="0" t="s">
+        <x:v>102</x:v>
+      </x:c>
+      <x:c r="H7" s="0" t="s">
+        <x:v>103</x:v>
+      </x:c>
+      <x:c r="I7" s="0" t="s"/>
+      <x:c r="J7" s="0" t="s"/>
+      <x:c r="K7" s="0" t="s"/>
+    </x:row>
+    <x:row r="8" spans="1:11">
+      <x:c r="A8" s="0" t="s">
+        <x:v>45</x:v>
+      </x:c>
+      <x:c r="B8" s="0" t="s">
+        <x:v>46</x:v>
+      </x:c>
+      <x:c r="C8" s="0" t="s">
+        <x:v>104</x:v>
+      </x:c>
+      <x:c r="D8" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="E8" s="0" t="s"/>
+      <x:c r="F8" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="G8" s="0" t="s">
+        <x:v>105</x:v>
+      </x:c>
+      <x:c r="H8" s="0" t="s">
+        <x:v>106</x:v>
+      </x:c>
+      <x:c r="I8" s="0" t="s"/>
+      <x:c r="J8" s="0" t="s"/>
+      <x:c r="K8" s="0" t="s"/>
+    </x:row>
+    <x:row r="9" spans="1:11">
+      <x:c r="A9" s="0" t="s"/>
+      <x:c r="B9" s="0" t="s"/>
+      <x:c r="C9" s="0" t="s"/>
+      <x:c r="D9" s="0" t="s"/>
+      <x:c r="E9" s="0" t="s"/>
+      <x:c r="F9" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="G9" s="0" t="s">
+        <x:v>107</x:v>
+      </x:c>
+      <x:c r="H9" s="0" t="s">
+        <x:v>108</x:v>
+      </x:c>
+      <x:c r="I9" s="0" t="s"/>
+      <x:c r="J9" s="0" t="s"/>
+      <x:c r="K9" s="0" t="s"/>
+    </x:row>
+    <x:row r="10" spans="1:11">
+      <x:c r="A10" s="0" t="s">
+        <x:v>52</x:v>
+      </x:c>
+      <x:c r="B10" s="0" t="s">
+        <x:v>53</x:v>
+      </x:c>
+      <x:c r="C10" s="0" t="s">
+        <x:v>109</x:v>
+      </x:c>
+      <x:c r="D10" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="E10" s="0" t="s"/>
+      <x:c r="F10" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="G10" s="0" t="s">
+        <x:v>110</x:v>
+      </x:c>
+      <x:c r="H10" s="0" t="s">
+        <x:v>111</x:v>
+      </x:c>
+      <x:c r="I10" s="0" t="s"/>
+      <x:c r="J10" s="0" t="s"/>
+      <x:c r="K10" s="0" t="s"/>
+    </x:row>
+    <x:row r="11" spans="1:11">
+      <x:c r="A11" s="0" t="s"/>
+      <x:c r="B11" s="0" t="s"/>
+      <x:c r="C11" s="0" t="s"/>
+      <x:c r="D11" s="0" t="s"/>
+      <x:c r="E11" s="0" t="s">
+        <x:v>90</x:v>
+      </x:c>
+      <x:c r="F11" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="G11" s="0" t="s">
+        <x:v>91</x:v>
+      </x:c>
+      <x:c r="H11" s="0" t="s">
+        <x:v>92</x:v>
+      </x:c>
+      <x:c r="I11" s="0" t="s"/>
+      <x:c r="J11" s="0" t="s"/>
+      <x:c r="K11" s="0" t="s"/>
+    </x:row>
+    <x:row r="12" spans="1:11">
+      <x:c r="A12" s="0" t="s"/>
+      <x:c r="B12" s="0" t="s"/>
+      <x:c r="C12" s="0" t="s"/>
+      <x:c r="D12" s="0" t="s"/>
+      <x:c r="E12" s="0" t="s">
+        <x:v>93</x:v>
+      </x:c>
+      <x:c r="F12" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="G12" s="0" t="s">
+        <x:v>94</x:v>
+      </x:c>
+      <x:c r="H12" s="0" t="s">
+        <x:v>95</x:v>
+      </x:c>
+      <x:c r="I12" s="0" t="s"/>
+      <x:c r="J12" s="0" t="s"/>
+      <x:c r="K12" s="0" t="s"/>
+    </x:row>
+    <x:row r="13" spans="1:11">
+      <x:c r="A13" s="0" t="s"/>
+      <x:c r="B13" s="0" t="s"/>
+      <x:c r="C13" s="0" t="s"/>
+      <x:c r="D13" s="0" t="s"/>
+      <x:c r="E13" s="0" t="s">
+        <x:v>96</x:v>
+      </x:c>
+      <x:c r="F13" s="0" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="G13" s="0" t="s">
+        <x:v>97</x:v>
+      </x:c>
+      <x:c r="H13" s="0" t="s">
+        <x:v>98</x:v>
+      </x:c>
+      <x:c r="I13" s="0" t="s"/>
+      <x:c r="J13" s="0" t="s"/>
+      <x:c r="K13" s="0" t="s"/>
+    </x:row>
+    <x:row r="14" spans="1:11">
+      <x:c r="A14" s="0" t="s"/>
+      <x:c r="B14" s="0" t="s"/>
+      <x:c r="C14" s="0" t="s"/>
+      <x:c r="D14" s="0" t="s"/>
+      <x:c r="E14" s="0" t="s">
+        <x:v>99</x:v>
+      </x:c>
+      <x:c r="F14" s="0" t="s">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="G14" s="0" t="s">
+        <x:v>100</x:v>
+      </x:c>
+      <x:c r="H14" s="0" t="s">
+        <x:v>101</x:v>
+      </x:c>
+      <x:c r="I14" s="0" t="s"/>
+      <x:c r="J14" s="0" t="s"/>
+      <x:c r="K14" s="0" t="s"/>
+    </x:row>
+    <x:row r="15" spans="1:11">
+      <x:c r="A15" s="0" t="s"/>
+      <x:c r="B15" s="0" t="s"/>
+      <x:c r="C15" s="0" t="s"/>
+      <x:c r="D15" s="0" t="s"/>
+      <x:c r="E15" s="0" t="s"/>
+      <x:c r="F15" s="0" t="s">
+        <x:v>35</x:v>
+      </x:c>
+      <x:c r="G15" s="0" t="s">
+        <x:v>102</x:v>
+      </x:c>
+      <x:c r="H15" s="0" t="s">
+        <x:v>112</x:v>
+      </x:c>
+      <x:c r="I15" s="0" t="s"/>
+      <x:c r="J15" s="0" t="s"/>
+      <x:c r="K15" s="0" t="s"/>
+    </x:row>
+    <x:row r="16" spans="1:11">
+      <x:c r="A16" s="0" t="s">
+        <x:v>58</x:v>
+      </x:c>
+      <x:c r="B16" s="0" t="s">
+        <x:v>59</x:v>
+      </x:c>
+      <x:c r="C16" s="0" t="s">
+        <x:v>113</x:v>
+      </x:c>
+      <x:c r="D16" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="E16" s="0" t="s"/>
+      <x:c r="F16" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="G16" s="0" t="s">
+        <x:v>114</x:v>
+      </x:c>
+      <x:c r="H16" s="0" t="s">
+        <x:v>111</x:v>
+      </x:c>
+      <x:c r="I16" s="0" t="s"/>
+      <x:c r="J16" s="0" t="s"/>
+      <x:c r="K16" s="0" t="s"/>
+    </x:row>
+    <x:row r="17" spans="1:11">
+      <x:c r="A17" s="0" t="s"/>
+      <x:c r="B17" s="0" t="s"/>
+      <x:c r="C17" s="0" t="s"/>
+      <x:c r="D17" s="0" t="s"/>
+      <x:c r="E17" s="0" t="s"/>
+      <x:c r="F17" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="G17" s="0" t="s">
+        <x:v>115</x:v>
+      </x:c>
+      <x:c r="H17" s="0" t="s">
+        <x:v>116</x:v>
+      </x:c>
+      <x:c r="I17" s="0" t="s"/>
+      <x:c r="J17" s="0" t="s"/>
+      <x:c r="K17" s="0" t="s"/>
+    </x:row>
+    <x:row r="18" spans="1:11">
+      <x:c r="A18" s="0" t="s"/>
+      <x:c r="B18" s="0" t="s"/>
+      <x:c r="C18" s="0" t="s"/>
+      <x:c r="D18" s="0" t="s"/>
+      <x:c r="E18" s="0" t="s"/>
+      <x:c r="F18" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="G18" s="0" t="s">
+        <x:v>117</x:v>
+      </x:c>
+      <x:c r="H18" s="0" t="s">
+        <x:v>118</x:v>
+      </x:c>
+      <x:c r="I18" s="0" t="s"/>
+      <x:c r="J18" s="0" t="s"/>
+      <x:c r="K18" s="0" t="s"/>
+    </x:row>
+    <x:row r="19" spans="1:11">
+      <x:c r="A19" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="B19" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="C19" s="0" t="s">
+        <x:v>87</x:v>
+      </x:c>
+      <x:c r="D19" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="E19" s="0" t="s"/>
+      <x:c r="F19" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="G19" s="0" t="s">
+        <x:v>88</x:v>
+      </x:c>
+      <x:c r="H19" s="0" t="s">
+        <x:v>89</x:v>
+      </x:c>
+      <x:c r="I19" s="0" t="s"/>
+      <x:c r="J19" s="0" t="s"/>
+      <x:c r="K19" s="0" t="s"/>
+    </x:row>
+    <x:row r="20" spans="1:11">
+      <x:c r="A20" s="0" t="s"/>
+      <x:c r="B20" s="0" t="s"/>
+      <x:c r="C20" s="0" t="s"/>
+      <x:c r="D20" s="0" t="s"/>
+      <x:c r="E20" s="0" t="s">
+        <x:v>90</x:v>
+      </x:c>
+      <x:c r="F20" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="G20" s="0" t="s">
+        <x:v>91</x:v>
+      </x:c>
+      <x:c r="H20" s="0" t="s">
+        <x:v>92</x:v>
+      </x:c>
+      <x:c r="I20" s="0" t="s"/>
+      <x:c r="J20" s="0" t="s"/>
+      <x:c r="K20" s="0" t="s"/>
+    </x:row>
+    <x:row r="21" spans="1:11">
+      <x:c r="A21" s="0" t="s"/>
+      <x:c r="B21" s="0" t="s"/>
+      <x:c r="C21" s="0" t="s"/>
+      <x:c r="D21" s="0" t="s"/>
+      <x:c r="E21" s="0" t="s">
+        <x:v>99</x:v>
+      </x:c>
+      <x:c r="F21" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="G21" s="0" t="s">
+        <x:v>100</x:v>
+      </x:c>
+      <x:c r="H21" s="0" t="s">
+        <x:v>101</x:v>
+      </x:c>
+      <x:c r="I21" s="0" t="s"/>
+      <x:c r="J21" s="0" t="s"/>
+      <x:c r="K21" s="0" t="s"/>
+    </x:row>
+    <x:row r="22" spans="1:11">
+      <x:c r="A22" s="0" t="s"/>
+      <x:c r="B22" s="0" t="s"/>
+      <x:c r="C22" s="0" t="s"/>
+      <x:c r="D22" s="0" t="s"/>
+      <x:c r="E22" s="0" t="s">
+        <x:v>93</x:v>
+      </x:c>
+      <x:c r="F22" s="0" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="G22" s="0" t="s">
+        <x:v>94</x:v>
+      </x:c>
+      <x:c r="H22" s="0" t="s">
+        <x:v>95</x:v>
+      </x:c>
+      <x:c r="I22" s="0" t="s"/>
+      <x:c r="J22" s="0" t="s"/>
+      <x:c r="K22" s="0" t="s"/>
+    </x:row>
+    <x:row r="23" spans="1:11">
+      <x:c r="A23" s="0" t="s"/>
+      <x:c r="B23" s="0" t="s"/>
+      <x:c r="C23" s="0" t="s"/>
+      <x:c r="D23" s="0" t="s"/>
+      <x:c r="E23" s="0" t="s">
+        <x:v>96</x:v>
+      </x:c>
+      <x:c r="F23" s="0" t="s">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="G23" s="0" t="s">
+        <x:v>97</x:v>
+      </x:c>
+      <x:c r="H23" s="0" t="s">
+        <x:v>98</x:v>
+      </x:c>
+      <x:c r="I23" s="0" t="s"/>
+      <x:c r="J23" s="0" t="s"/>
+      <x:c r="K23" s="0" t="s"/>
+    </x:row>
+    <x:row r="24" spans="1:11">
+      <x:c r="A24" s="0" t="s"/>
+      <x:c r="B24" s="0" t="s"/>
+      <x:c r="C24" s="0" t="s"/>
+      <x:c r="D24" s="0" t="s"/>
+      <x:c r="E24" s="0" t="s"/>
+      <x:c r="F24" s="0" t="s">
+        <x:v>35</x:v>
+      </x:c>
+      <x:c r="G24" s="0" t="s">
+        <x:v>102</x:v>
+      </x:c>
+      <x:c r="H24" s="0" t="s">
+        <x:v>103</x:v>
+      </x:c>
+      <x:c r="I24" s="0" t="s"/>
+      <x:c r="J24" s="0" t="s"/>
+      <x:c r="K24" s="0" t="s"/>
+    </x:row>
+    <x:row r="25" spans="1:11">
+      <x:c r="A25" s="0" t="s">
+        <x:v>45</x:v>
+      </x:c>
+      <x:c r="B25" s="0" t="s">
+        <x:v>46</x:v>
+      </x:c>
+      <x:c r="C25" s="0" t="s">
+        <x:v>104</x:v>
+      </x:c>
+      <x:c r="D25" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="E25" s="0" t="s"/>
+      <x:c r="F25" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="G25" s="0" t="s">
+        <x:v>105</x:v>
+      </x:c>
+      <x:c r="H25" s="0" t="s">
+        <x:v>106</x:v>
+      </x:c>
+      <x:c r="I25" s="0" t="s"/>
+      <x:c r="J25" s="0" t="s"/>
+      <x:c r="K25" s="0" t="s"/>
+    </x:row>
+    <x:row r="26" spans="1:11">
+      <x:c r="A26" s="0" t="s"/>
+      <x:c r="B26" s="0" t="s"/>
+      <x:c r="C26" s="0" t="s"/>
+      <x:c r="D26" s="0" t="s"/>
+      <x:c r="E26" s="0" t="s"/>
+      <x:c r="F26" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="G26" s="0" t="s">
+        <x:v>107</x:v>
+      </x:c>
+      <x:c r="H26" s="0" t="s">
+        <x:v>108</x:v>
+      </x:c>
+      <x:c r="I26" s="0" t="s"/>
+      <x:c r="J26" s="0" t="s"/>
+      <x:c r="K26" s="0" t="s"/>
+    </x:row>
+    <x:row r="27" spans="1:11">
+      <x:c r="A27" s="0" t="s">
+        <x:v>52</x:v>
+      </x:c>
+      <x:c r="B27" s="0" t="s">
+        <x:v>53</x:v>
+      </x:c>
+      <x:c r="C27" s="0" t="s">
+        <x:v>109</x:v>
+      </x:c>
+      <x:c r="D27" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="E27" s="0" t="s"/>
+      <x:c r="F27" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="G27" s="0" t="s">
+        <x:v>110</x:v>
+      </x:c>
+      <x:c r="H27" s="0" t="s">
+        <x:v>111</x:v>
+      </x:c>
+      <x:c r="I27" s="0" t="s"/>
+      <x:c r="J27" s="0" t="s"/>
+      <x:c r="K27" s="0" t="s"/>
+    </x:row>
+    <x:row r="28" spans="1:11">
+      <x:c r="A28" s="0" t="s"/>
+      <x:c r="B28" s="0" t="s"/>
+      <x:c r="C28" s="0" t="s"/>
+      <x:c r="D28" s="0" t="s"/>
+      <x:c r="E28" s="0" t="s">
+        <x:v>90</x:v>
+      </x:c>
+      <x:c r="F28" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="G28" s="0" t="s">
+        <x:v>91</x:v>
+      </x:c>
+      <x:c r="H28" s="0" t="s">
+        <x:v>92</x:v>
+      </x:c>
+      <x:c r="I28" s="0" t="s"/>
+      <x:c r="J28" s="0" t="s"/>
+      <x:c r="K28" s="0" t="s"/>
+    </x:row>
+    <x:row r="29" spans="1:11">
+      <x:c r="A29" s="0" t="s"/>
+      <x:c r="B29" s="0" t="s"/>
+      <x:c r="C29" s="0" t="s"/>
+      <x:c r="D29" s="0" t="s"/>
+      <x:c r="E29" s="0" t="s">
+        <x:v>99</x:v>
+      </x:c>
+      <x:c r="F29" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="G29" s="0" t="s">
+        <x:v>100</x:v>
+      </x:c>
+      <x:c r="H29" s="0" t="s">
+        <x:v>101</x:v>
+      </x:c>
+      <x:c r="I29" s="0" t="s"/>
+      <x:c r="J29" s="0" t="s"/>
+      <x:c r="K29" s="0" t="s"/>
+    </x:row>
+    <x:row r="30" spans="1:11">
+      <x:c r="A30" s="0" t="s"/>
+      <x:c r="B30" s="0" t="s"/>
+      <x:c r="C30" s="0" t="s"/>
+      <x:c r="D30" s="0" t="s"/>
+      <x:c r="E30" s="0" t="s">
+        <x:v>93</x:v>
+      </x:c>
+      <x:c r="F30" s="0" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="G30" s="0" t="s">
+        <x:v>94</x:v>
+      </x:c>
+      <x:c r="H30" s="0" t="s">
+        <x:v>95</x:v>
+      </x:c>
+      <x:c r="I30" s="0" t="s"/>
+      <x:c r="J30" s="0" t="s"/>
+      <x:c r="K30" s="0" t="s"/>
+    </x:row>
+    <x:row r="31" spans="1:11">
+      <x:c r="A31" s="0" t="s"/>
+      <x:c r="B31" s="0" t="s"/>
+      <x:c r="C31" s="0" t="s"/>
+      <x:c r="D31" s="0" t="s"/>
+      <x:c r="E31" s="0" t="s">
+        <x:v>96</x:v>
+      </x:c>
+      <x:c r="F31" s="0" t="s">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="G31" s="0" t="s">
+        <x:v>97</x:v>
+      </x:c>
+      <x:c r="H31" s="0" t="s">
+        <x:v>98</x:v>
+      </x:c>
+      <x:c r="I31" s="0" t="s"/>
+      <x:c r="J31" s="0" t="s"/>
+      <x:c r="K31" s="0" t="s"/>
+    </x:row>
+    <x:row r="32" spans="1:11">
+      <x:c r="A32" s="0" t="s"/>
+      <x:c r="B32" s="0" t="s"/>
+      <x:c r="C32" s="0" t="s"/>
+      <x:c r="D32" s="0" t="s"/>
+      <x:c r="E32" s="0" t="s"/>
+      <x:c r="F32" s="0" t="s">
+        <x:v>35</x:v>
+      </x:c>
+      <x:c r="G32" s="0" t="s">
+        <x:v>102</x:v>
+      </x:c>
+      <x:c r="H32" s="0" t="s">
+        <x:v>112</x:v>
+      </x:c>
+      <x:c r="I32" s="0" t="s"/>
+      <x:c r="J32" s="0" t="s"/>
+      <x:c r="K32" s="0" t="s"/>
+    </x:row>
+    <x:row r="33" spans="1:11">
+      <x:c r="A33" s="0" t="s">
+        <x:v>58</x:v>
+      </x:c>
+      <x:c r="B33" s="0" t="s">
+        <x:v>59</x:v>
+      </x:c>
+      <x:c r="C33" s="0" t="s">
+        <x:v>113</x:v>
+      </x:c>
+      <x:c r="D33" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="E33" s="0" t="s"/>
+      <x:c r="F33" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="G33" s="0" t="s">
+        <x:v>114</x:v>
+      </x:c>
+      <x:c r="H33" s="0" t="s">
+        <x:v>111</x:v>
+      </x:c>
+      <x:c r="I33" s="0" t="s"/>
+      <x:c r="J33" s="0" t="s"/>
+      <x:c r="K33" s="0" t="s"/>
+    </x:row>
+    <x:row r="34" spans="1:11">
+      <x:c r="A34" s="0" t="s"/>
+      <x:c r="B34" s="0" t="s"/>
+      <x:c r="C34" s="0" t="s"/>
+      <x:c r="D34" s="0" t="s"/>
+      <x:c r="E34" s="0" t="s"/>
+      <x:c r="F34" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="G34" s="0" t="s">
+        <x:v>115</x:v>
+      </x:c>
+      <x:c r="H34" s="0" t="s">
+        <x:v>116</x:v>
+      </x:c>
+      <x:c r="I34" s="0" t="s"/>
+      <x:c r="J34" s="0" t="s"/>
+      <x:c r="K34" s="0" t="s"/>
+    </x:row>
+    <x:row r="35" spans="1:11">
+      <x:c r="A35" s="0" t="s"/>
+      <x:c r="B35" s="0" t="s"/>
+      <x:c r="C35" s="0" t="s"/>
+      <x:c r="D35" s="0" t="s"/>
+      <x:c r="E35" s="0" t="s"/>
+      <x:c r="F35" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="G35" s="0" t="s">
+        <x:v>117</x:v>
+      </x:c>
+      <x:c r="H35" s="0" t="s">
+        <x:v>118</x:v>
+      </x:c>
+      <x:c r="I35" s="0" t="s"/>
+      <x:c r="J35" s="0" t="s"/>
+      <x:c r="K35" s="0" t="s"/>
+    </x:row>
+    <x:row r="36" spans="1:11">
+      <x:c r="A36" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="B36" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="C36" s="0" t="s">
+        <x:v>87</x:v>
+      </x:c>
+      <x:c r="D36" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="E36" s="0" t="s"/>
+      <x:c r="F36" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="G36" s="0" t="s">
+        <x:v>88</x:v>
+      </x:c>
+      <x:c r="H36" s="0" t="s">
+        <x:v>89</x:v>
+      </x:c>
+      <x:c r="I36" s="0" t="s"/>
+      <x:c r="J36" s="0" t="s"/>
+      <x:c r="K36" s="0" t="s"/>
+    </x:row>
+    <x:row r="37" spans="1:11">
+      <x:c r="A37" s="0" t="s"/>
+      <x:c r="B37" s="0" t="s"/>
+      <x:c r="C37" s="0" t="s"/>
+      <x:c r="D37" s="0" t="s"/>
+      <x:c r="E37" s="0" t="s">
+        <x:v>90</x:v>
+      </x:c>
+      <x:c r="F37" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="G37" s="0" t="s">
+        <x:v>91</x:v>
+      </x:c>
+      <x:c r="H37" s="0" t="s">
+        <x:v>92</x:v>
+      </x:c>
+      <x:c r="I37" s="0" t="s"/>
+      <x:c r="J37" s="0" t="s"/>
+      <x:c r="K37" s="0" t="s"/>
+    </x:row>
+    <x:row r="38" spans="1:11">
+      <x:c r="A38" s="0" t="s"/>
+      <x:c r="B38" s="0" t="s"/>
+      <x:c r="C38" s="0" t="s"/>
+      <x:c r="D38" s="0" t="s"/>
+      <x:c r="E38" s="0" t="s">
+        <x:v>99</x:v>
+      </x:c>
+      <x:c r="F38" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="G38" s="0" t="s">
+        <x:v>100</x:v>
+      </x:c>
+      <x:c r="H38" s="0" t="s">
+        <x:v>101</x:v>
+      </x:c>
+      <x:c r="I38" s="0" t="s"/>
+      <x:c r="J38" s="0" t="s"/>
+      <x:c r="K38" s="0" t="s"/>
+    </x:row>
+    <x:row r="39" spans="1:11">
+      <x:c r="A39" s="0" t="s"/>
+      <x:c r="B39" s="0" t="s"/>
+      <x:c r="C39" s="0" t="s"/>
+      <x:c r="D39" s="0" t="s"/>
+      <x:c r="E39" s="0" t="s">
+        <x:v>93</x:v>
+      </x:c>
+      <x:c r="F39" s="0" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="G39" s="0" t="s">
+        <x:v>94</x:v>
+      </x:c>
+      <x:c r="H39" s="0" t="s">
+        <x:v>95</x:v>
+      </x:c>
+      <x:c r="I39" s="0" t="s"/>
+      <x:c r="J39" s="0" t="s"/>
+      <x:c r="K39" s="0" t="s"/>
+    </x:row>
+    <x:row r="40" spans="1:11">
+      <x:c r="A40" s="0" t="s"/>
+      <x:c r="B40" s="0" t="s"/>
+      <x:c r="C40" s="0" t="s"/>
+      <x:c r="D40" s="0" t="s"/>
+      <x:c r="E40" s="0" t="s">
+        <x:v>96</x:v>
+      </x:c>
+      <x:c r="F40" s="0" t="s">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="G40" s="0" t="s">
+        <x:v>97</x:v>
+      </x:c>
+      <x:c r="H40" s="0" t="s">
+        <x:v>98</x:v>
+      </x:c>
+      <x:c r="I40" s="0" t="s"/>
+      <x:c r="J40" s="0" t="s"/>
+      <x:c r="K40" s="0" t="s"/>
+    </x:row>
+    <x:row r="41" spans="1:11">
+      <x:c r="A41" s="0" t="s"/>
+      <x:c r="B41" s="0" t="s"/>
+      <x:c r="C41" s="0" t="s"/>
+      <x:c r="D41" s="0" t="s"/>
+      <x:c r="E41" s="0" t="s"/>
+      <x:c r="F41" s="0" t="s">
+        <x:v>35</x:v>
+      </x:c>
+      <x:c r="G41" s="0" t="s">
+        <x:v>102</x:v>
+      </x:c>
+      <x:c r="H41" s="0" t="s">
+        <x:v>103</x:v>
+      </x:c>
+      <x:c r="I41" s="0" t="s"/>
+      <x:c r="J41" s="0" t="s"/>
+      <x:c r="K41" s="0" t="s"/>
+    </x:row>
+    <x:row r="42" spans="1:11">
+      <x:c r="A42" s="0" t="s">
+        <x:v>45</x:v>
+      </x:c>
+      <x:c r="B42" s="0" t="s">
+        <x:v>46</x:v>
+      </x:c>
+      <x:c r="C42" s="0" t="s">
+        <x:v>104</x:v>
+      </x:c>
+      <x:c r="D42" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="E42" s="0" t="s"/>
+      <x:c r="F42" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="G42" s="0" t="s">
+        <x:v>105</x:v>
+      </x:c>
+      <x:c r="H42" s="0" t="s">
+        <x:v>106</x:v>
+      </x:c>
+      <x:c r="I42" s="0" t="s"/>
+      <x:c r="J42" s="0" t="s"/>
+      <x:c r="K42" s="0" t="s"/>
+    </x:row>
+    <x:row r="43" spans="1:11">
+      <x:c r="A43" s="0" t="s"/>
+      <x:c r="B43" s="0" t="s"/>
+      <x:c r="C43" s="0" t="s"/>
+      <x:c r="D43" s="0" t="s"/>
+      <x:c r="E43" s="0" t="s"/>
+      <x:c r="F43" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="G43" s="0" t="s">
+        <x:v>107</x:v>
+      </x:c>
+      <x:c r="H43" s="0" t="s">
+        <x:v>108</x:v>
+      </x:c>
+      <x:c r="I43" s="0" t="s"/>
+      <x:c r="J43" s="0" t="s"/>
+      <x:c r="K43" s="0" t="s"/>
+    </x:row>
+    <x:row r="44" spans="1:11">
+      <x:c r="A44" s="0" t="s">
+        <x:v>52</x:v>
+      </x:c>
+      <x:c r="B44" s="0" t="s">
+        <x:v>53</x:v>
+      </x:c>
+      <x:c r="C44" s="0" t="s">
+        <x:v>109</x:v>
+      </x:c>
+      <x:c r="D44" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="E44" s="0" t="s"/>
+      <x:c r="F44" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="G44" s="0" t="s">
+        <x:v>110</x:v>
+      </x:c>
+      <x:c r="H44" s="0" t="s">
+        <x:v>111</x:v>
+      </x:c>
+      <x:c r="I44" s="0" t="s"/>
+      <x:c r="J44" s="0" t="s"/>
+      <x:c r="K44" s="0" t="s"/>
+    </x:row>
+    <x:row r="45" spans="1:11">
+      <x:c r="A45" s="0" t="s"/>
+      <x:c r="B45" s="0" t="s"/>
+      <x:c r="C45" s="0" t="s"/>
+      <x:c r="D45" s="0" t="s"/>
+      <x:c r="E45" s="0" t="s">
+        <x:v>90</x:v>
+      </x:c>
+      <x:c r="F45" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="G45" s="0" t="s">
+        <x:v>91</x:v>
+      </x:c>
+      <x:c r="H45" s="0" t="s">
+        <x:v>92</x:v>
+      </x:c>
+      <x:c r="I45" s="0" t="s"/>
+      <x:c r="J45" s="0" t="s"/>
+      <x:c r="K45" s="0" t="s"/>
+    </x:row>
+    <x:row r="46" spans="1:11">
+      <x:c r="A46" s="0" t="s"/>
+      <x:c r="B46" s="0" t="s"/>
+      <x:c r="C46" s="0" t="s"/>
+      <x:c r="D46" s="0" t="s"/>
+      <x:c r="E46" s="0" t="s">
+        <x:v>99</x:v>
+      </x:c>
+      <x:c r="F46" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="G46" s="0" t="s">
+        <x:v>100</x:v>
+      </x:c>
+      <x:c r="H46" s="0" t="s">
+        <x:v>101</x:v>
+      </x:c>
+      <x:c r="I46" s="0" t="s"/>
+      <x:c r="J46" s="0" t="s"/>
+      <x:c r="K46" s="0" t="s"/>
+    </x:row>
+    <x:row r="47" spans="1:11">
+      <x:c r="A47" s="0" t="s"/>
+      <x:c r="B47" s="0" t="s"/>
+      <x:c r="C47" s="0" t="s"/>
+      <x:c r="D47" s="0" t="s"/>
+      <x:c r="E47" s="0" t="s">
+        <x:v>93</x:v>
+      </x:c>
+      <x:c r="F47" s="0" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="G47" s="0" t="s">
+        <x:v>94</x:v>
+      </x:c>
+      <x:c r="H47" s="0" t="s">
+        <x:v>95</x:v>
+      </x:c>
+      <x:c r="I47" s="0" t="s"/>
+      <x:c r="J47" s="0" t="s"/>
+      <x:c r="K47" s="0" t="s"/>
+    </x:row>
+    <x:row r="48" spans="1:11">
+      <x:c r="A48" s="0" t="s"/>
+      <x:c r="B48" s="0" t="s"/>
+      <x:c r="C48" s="0" t="s"/>
+      <x:c r="D48" s="0" t="s"/>
+      <x:c r="E48" s="0" t="s">
+        <x:v>96</x:v>
+      </x:c>
+      <x:c r="F48" s="0" t="s">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="G48" s="0" t="s">
+        <x:v>97</x:v>
+      </x:c>
+      <x:c r="H48" s="0" t="s">
+        <x:v>98</x:v>
+      </x:c>
+      <x:c r="I48" s="0" t="s"/>
+      <x:c r="J48" s="0" t="s"/>
+      <x:c r="K48" s="0" t="s"/>
+    </x:row>
+    <x:row r="49" spans="1:11">
+      <x:c r="A49" s="0" t="s"/>
+      <x:c r="B49" s="0" t="s"/>
+      <x:c r="C49" s="0" t="s"/>
+      <x:c r="D49" s="0" t="s"/>
+      <x:c r="E49" s="0" t="s"/>
+      <x:c r="F49" s="0" t="s">
+        <x:v>35</x:v>
+      </x:c>
+      <x:c r="G49" s="0" t="s">
+        <x:v>102</x:v>
+      </x:c>
+      <x:c r="H49" s="0" t="s">
+        <x:v>112</x:v>
+      </x:c>
+      <x:c r="I49" s="0" t="s"/>
+      <x:c r="J49" s="0" t="s"/>
+      <x:c r="K49" s="0" t="s"/>
+    </x:row>
+    <x:row r="50" spans="1:11">
+      <x:c r="A50" s="0" t="s">
+        <x:v>58</x:v>
+      </x:c>
+      <x:c r="B50" s="0" t="s">
+        <x:v>59</x:v>
+      </x:c>
+      <x:c r="C50" s="0" t="s">
+        <x:v>113</x:v>
+      </x:c>
+      <x:c r="D50" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="E50" s="0" t="s"/>
+      <x:c r="F50" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="G50" s="0" t="s">
+        <x:v>114</x:v>
+      </x:c>
+      <x:c r="H50" s="0" t="s">
+        <x:v>111</x:v>
+      </x:c>
+      <x:c r="I50" s="0" t="s"/>
+      <x:c r="J50" s="0" t="s"/>
+      <x:c r="K50" s="0" t="s"/>
+    </x:row>
+    <x:row r="51" spans="1:11">
+      <x:c r="A51" s="0" t="s"/>
+      <x:c r="B51" s="0" t="s"/>
+      <x:c r="C51" s="0" t="s"/>
+      <x:c r="D51" s="0" t="s"/>
+      <x:c r="E51" s="0" t="s"/>
+      <x:c r="F51" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="G51" s="0" t="s">
+        <x:v>115</x:v>
+      </x:c>
+      <x:c r="H51" s="0" t="s">
+        <x:v>116</x:v>
+      </x:c>
+      <x:c r="I51" s="0" t="s"/>
+      <x:c r="J51" s="0" t="s"/>
+      <x:c r="K51" s="0" t="s"/>
+    </x:row>
+    <x:row r="52" spans="1:11">
+      <x:c r="A52" s="0" t="s"/>
+      <x:c r="B52" s="0" t="s"/>
+      <x:c r="C52" s="0" t="s"/>
+      <x:c r="D52" s="0" t="s"/>
+      <x:c r="E52" s="0" t="s"/>
+      <x:c r="F52" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="G52" s="0" t="s">
+        <x:v>117</x:v>
+      </x:c>
+      <x:c r="H52" s="0" t="s">
+        <x:v>118</x:v>
+      </x:c>
+      <x:c r="I52" s="0" t="s"/>
+      <x:c r="J52" s="0" t="s"/>
+      <x:c r="K52" s="0" t="s"/>
+    </x:row>
+  </x:sheetData>
+  <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
+  <x:pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>
+  <x:pageSetup paperSize="1" scale="100" pageOrder="downThenOver" orientation="default" blackAndWhite="0" draft="0" cellComments="none" errors="displayed"/>
+  <x:headerFooter/>
+  <x:tableParts count="1">
+    <x:tablePart r:id="rId19"/>
   </x:tableParts>
 </x:worksheet>
 </file>